--- a/data/Excel Workbooks/Calvin2011/SaudiArabiaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Calvin2011/SaudiArabiaDataWorkbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="21840" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="400" windowWidth="21840" windowHeight="13740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Saudi Arabia Workbook" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Employment calcs" sheetId="2" r:id="rId4"/>
     <sheet name="Exergy calcs" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="127">
   <si>
     <t>Notes</t>
   </si>
@@ -924,6 +924,21 @@
   <si>
     <t>Biodiesel thermal energy [TJ]</t>
   </si>
+  <si>
+    <t>iK</t>
+  </si>
+  <si>
+    <t>iL</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Calvin2011</t>
+  </si>
+  <si>
+    <t>Excluding human</t>
+  </si>
 </sst>
 </file>
 
@@ -937,7 +952,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1835,11 +1850,11 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1848,18 +1863,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1895,7 +1910,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="492">
+  <cellStyleXfs count="500">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2394,8 +2409,16 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2535,9 +2558,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2641,7 +2661,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2671,8 +2694,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="492">
+  <cellStyles count="500">
     <cellStyle name="•\Ž¦Ï‚Ý‚ÌƒnƒCƒp[ƒŠƒ“ƒN" xfId="42"/>
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 10" xfId="54"/>
@@ -2986,8 +3012,12 @@
     <cellStyle name="Explanatory Text 7" xfId="328"/>
     <cellStyle name="Explanatory Text 8" xfId="329"/>
     <cellStyle name="Explanatory Text 9" xfId="330"/>
+    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="499" builtinId="9" hidden="1"/>
     <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Good 10" xfId="331"/>
     <cellStyle name="Good 11" xfId="332"/>
@@ -3071,6 +3101,10 @@
     <cellStyle name="Heading 4 8" xfId="379"/>
     <cellStyle name="Heading 4 9" xfId="380"/>
     <cellStyle name="Hyperlink" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="498" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Input 10" xfId="381"/>
     <cellStyle name="Input 11" xfId="382"/>
@@ -3197,10 +3231,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.7399798269486106E-2"/>
-          <c:y val="6.5750539526932494E-2"/>
-          <c:w val="0.88411797621602595"/>
-          <c:h val="0.83398254540392702"/>
+          <c:x val="0.0773997982694861"/>
+          <c:y val="0.0657505395269325"/>
+          <c:w val="0.884117976216026"/>
+          <c:h val="0.833982545403927"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3229,67 +3263,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3301,58 +3335,58 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0462856254344566</c:v>
+                  <c:v>1.046285625434457</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0465554457981194</c:v>
+                  <c:v>1.046555445798119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0535250429883292</c:v>
+                  <c:v>1.053525042988329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0556378736326053</c:v>
+                  <c:v>1.055637873632605</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.091359345845681</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1196538982182709</c:v>
+                  <c:v>1.119653898218271</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1513920901474408</c:v>
+                  <c:v>1.151392090147441</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1427761314162368</c:v>
+                  <c:v>1.142776131416237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1983682727838145</c:v>
+                  <c:v>1.198368272783814</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2049262795887754</c:v>
+                  <c:v>1.204926279588775</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2064674569202063</c:v>
+                  <c:v>1.206467456920206</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.29887407163502</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3672849668898401</c:v>
+                  <c:v>1.36728496688984</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4432188197417042</c:v>
+                  <c:v>1.443218819741704</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4887910218417297</c:v>
+                  <c:v>1.48879102184173</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5188234002853693</c:v>
+                  <c:v>1.518823400285369</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5830497932901622</c:v>
+                  <c:v>1.583049793290162</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.585551348187173</c:v>
@@ -3361,7 +3395,7 @@
                   <c:v>1.659024805180551</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7712426371053305</c:v>
+                  <c:v>1.77124263710533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3391,139 +3425,139 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Saudi Arabia Workbook'!$J$12:$J$32</c:f>
+              <c:f>'Saudi Arabia Workbook'!$I$12:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0598546016298735</c:v>
+                  <c:v>1.059854601629874</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.116506736173992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1702659465214034</c:v>
+                  <c:v>1.170265946521403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2187947499211678</c:v>
+                  <c:v>1.218794749921168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2542562147244056</c:v>
+                  <c:v>1.254256214724406</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2887861579363036</c:v>
+                  <c:v>1.288786157936304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3288676226816829</c:v>
+                  <c:v>1.328867622681683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3774051048540374</c:v>
+                  <c:v>1.377405104854037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4293099507913594</c:v>
+                  <c:v>1.429309950791359</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4799043020675728</c:v>
+                  <c:v>1.479904302067573</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5290116903066788</c:v>
+                  <c:v>1.529011690306679</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5999866925486952</c:v>
+                  <c:v>1.599986692548695</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6704930410708447</c:v>
+                  <c:v>1.670493041070845</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.769911274014887</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8990427313833096</c:v>
+                  <c:v>1.89904273138331</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2.065484232116666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2829800590735121</c:v>
+                  <c:v>2.282980059073512</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4182647662083312</c:v>
+                  <c:v>2.418264766208331</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.5547037500976364</c:v>
+                  <c:v>2.554703750097636</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.6944319887985975</c:v>
+                  <c:v>2.694431988798597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3553,139 +3587,139 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Saudi Arabia Workbook'!$I$12:$I$32</c:f>
+              <c:f>'Saudi Arabia Workbook'!$J$12:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0492432778224892</c:v>
+                  <c:v>1.049243271788266</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0791929259786623</c:v>
+                  <c:v>1.079192874375174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1059442002517592</c:v>
+                  <c:v>1.105944157653531</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1257132833942096</c:v>
+                  <c:v>1.125713248430304</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1207759136589694</c:v>
+                  <c:v>1.120775741806009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.088430013000681</c:v>
+                  <c:v>1.08842996450357</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0967694339544769</c:v>
+                  <c:v>1.096769370188294</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1337101467219712</c:v>
+                  <c:v>1.133710011806122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1607140056542644</c:v>
+                  <c:v>1.160714003043833</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2171908211065023</c:v>
+                  <c:v>1.217190820003109</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2835588848304753</c:v>
+                  <c:v>1.283558835066958</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4080253410099259</c:v>
+                  <c:v>1.408025296562375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.517596524897336</c:v>
+                  <c:v>1.517596480829755</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5716845168080233</c:v>
+                  <c:v>1.571684295651796</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6458240987226316</c:v>
+                  <c:v>1.645823885723752</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7178569512371282</c:v>
+                  <c:v>1.717856820856833</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7883965826781403</c:v>
+                  <c:v>1.78839640329786</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.794133803834169</c:v>
+                  <c:v>1.794133606383964</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8635176128273385</c:v>
+                  <c:v>1.86351752167467</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9471582162240244</c:v>
+                  <c:v>1.906592219459211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3717,67 +3751,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3789,67 +3823,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0552746197924234</c:v>
+                  <c:v>1.055279056216954</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0982548835654733</c:v>
+                  <c:v>1.098256370959387</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1313553898473481</c:v>
+                  <c:v>1.1313612367896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1159779600647721</c:v>
+                  <c:v>1.115944650825239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1939699375465991</c:v>
+                  <c:v>1.193997742693147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2639120090307985</c:v>
+                  <c:v>1.264015804467999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3114216596411876</c:v>
+                  <c:v>1.311544166131015</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3289358554195088</c:v>
+                  <c:v>1.32904288081428</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3986292665673528</c:v>
+                  <c:v>1.398756336479568</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4776734020267848</c:v>
+                  <c:v>1.477814739388344</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5486266937620641</c:v>
+                  <c:v>1.548768663230212</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6398622548346342</c:v>
+                  <c:v>1.639954654176382</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7600447476521726</c:v>
+                  <c:v>1.760138872187722</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.843474944941492</c:v>
+                  <c:v>1.843587651273858</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8981193273242325</c:v>
+                  <c:v>1.89819021722709</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9809056896961263</c:v>
+                  <c:v>1.980979469805412</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9413033280148106</c:v>
+                  <c:v>1.941291176470912</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0491373775982962</c:v>
+                  <c:v>2.049199924720195</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2418123840630342</c:v>
+                  <c:v>2.241960784307224</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7157594879322264</c:v>
+                  <c:v>2.716221819477203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3885,67 +3919,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3957,67 +3991,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0553174538545134</c:v>
+                  <c:v>1.05535041717484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0984769291740351</c:v>
+                  <c:v>1.098489107802377</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1317766606271742</c:v>
+                  <c:v>1.131822084103818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1169030783326042</c:v>
+                  <c:v>1.116662351231527</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1947531939936704</c:v>
+                  <c:v>1.194962584219523</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2647525704673135</c:v>
+                  <c:v>1.265522909688287</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3121304551395852</c:v>
+                  <c:v>1.31303812492186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3293796524728627</c:v>
+                  <c:v>1.33017166838313</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.399368376876027</c:v>
+                  <c:v>1.400309878998776</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4787357654746731</c:v>
+                  <c:v>1.479784283620542</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5499113181282804</c:v>
+                  <c:v>1.550965705967597</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6415961886040289</c:v>
+                  <c:v>1.642287298330382</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7623114831361626</c:v>
+                  <c:v>1.763018212329626</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8459460912862351</c:v>
+                  <c:v>1.846791021784285</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9009825733775598</c:v>
+                  <c:v>1.901521120200715</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9832235232646658</c:v>
+                  <c:v>1.983780433492964</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9463564003313114</c:v>
+                  <c:v>1.946294171145505</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0520602315062484</c:v>
+                  <c:v>2.052537550785667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.245050395247989</c:v>
+                  <c:v>2.246162828423131</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7158058026242671</c:v>
+                  <c:v>2.719217024450875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4032,11 +4066,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166464896"/>
-        <c:axId val="166467456"/>
+        <c:axId val="-2105628376"/>
+        <c:axId val="-2105661864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166464896"/>
+        <c:axId val="-2105628376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4067,8 +4101,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.47508528869201999"/>
-              <c:y val="0.94827199625997904"/>
+              <c:x val="0.47508528869202"/>
+              <c:y val="0.948271996259979"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4087,12 +4121,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166467456"/>
+        <c:crossAx val="-2105661864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166467456"/>
+        <c:axId val="-2105661864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4118,8 +4152,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.1328148495085099E-2"/>
-              <c:y val="0.34379986184678202"/>
+              <c:x val="0.0113281484950851"/>
+              <c:y val="0.343799861846782"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4138,10 +4172,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166464896"/>
+        <c:crossAx val="-2105628376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4156,7 +4190,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="144" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4167,7 +4201,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669694" cy="6288444"/>
+    <xdr:ext cx="8572500" cy="5820833"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4936,37 +4970,38 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E32"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="68" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="74" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="74" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
-    <col min="13" max="13" width="24.42578125" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="73"/>
+    <col min="2" max="2" width="19.83203125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="73" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="73" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="67" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="73" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="24.5" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="14" customHeight="1">
+      <c r="A1" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="70"/>
-      <c r="G1" s="74"/>
-      <c r="K1" s="74"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="69"/>
+      <c r="G1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
@@ -4975,8 +5010,6 @@
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -4984,12 +5017,9 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -4997,12 +5027,9 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5010,12 +5037,9 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
       <c r="F5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -5023,54 +5047,53 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="69"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="69"/>
+      <c r="G6" s="68"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="5"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:15" s="74" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:15" s="73" customFormat="1" ht="12.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-    </row>
-    <row r="8" spans="1:15" s="74" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B8" s="69"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="J7" s="68"/>
+    </row>
+    <row r="8" spans="1:15" s="73" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="J8" s="68"/>
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1">
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="73" t="s">
         <v>100</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>101</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>104</v>
@@ -5080,75 +5103,75 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
-      <c r="A10" s="71"/>
-      <c r="B10" s="100" t="s">
+      <c r="A10" s="70"/>
+      <c r="E10" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="74"/>
+      <c r="H10" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="101" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="29.25" customHeight="1">
+      <c r="A11" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C11" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="100" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="100" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="100" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="100" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="100" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="29.25" customHeight="1">
-      <c r="A11" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1">
+      <c r="A12" s="73">
         <v>1991</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="75">
         <v>218664</v>
       </c>
-      <c r="C12" s="82">
-        <v>4845900</v>
-      </c>
-      <c r="D12" s="76">
+      <c r="C12" s="75">
         <v>345671</v>
       </c>
-      <c r="E12" s="69">
-        <v>3907609.8135719895</v>
-      </c>
-      <c r="F12" s="77">
-        <v>4132063.6039993963</v>
-      </c>
-      <c r="G12" s="77">
+      <c r="D12" s="81">
+        <f>'Employment calcs'!F7</f>
+        <v>4845900.3947999999</v>
+      </c>
+      <c r="E12" s="68">
+        <f>'Exergy calcs'!AO31</f>
+        <v>3886518.4876182596</v>
+      </c>
+      <c r="F12" s="76">
+        <f>'Exergy calcs'!AD31</f>
+        <v>4129026.4530620594</v>
+      </c>
+      <c r="G12" s="76">
         <f>A12-$A$12</f>
         <v>0</v>
       </c>
@@ -5164,7 +5187,7 @@
         <f>D12/$D$12</f>
         <v>1</v>
       </c>
-      <c r="K12" s="73">
+      <c r="K12" s="72">
         <f t="shared" ref="K12:K32" si="0">E12/$E$12</f>
         <v>1</v>
       </c>
@@ -5174,922 +5197,972 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1">
+      <c r="A13" s="73">
         <v>1992</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="75">
         <v>228785</v>
       </c>
-      <c r="C13" s="82">
-        <v>5084528</v>
-      </c>
-      <c r="D13" s="76">
+      <c r="C13" s="75">
         <v>366361</v>
       </c>
-      <c r="E13" s="69">
-        <v>4123768.8391157016</v>
-      </c>
-      <c r="F13" s="77">
-        <v>4360461.8486685734</v>
-      </c>
-      <c r="G13" s="77">
-        <f t="shared" ref="G13:G32" si="1">A13-$A$12</f>
+      <c r="D13" s="81">
+        <f>'Employment calcs'!F8</f>
+        <v>5084528.3850000016</v>
+      </c>
+      <c r="E13" s="68">
+        <f>'Exergy calcs'!AO32</f>
+        <v>4101638.9072656571</v>
+      </c>
+      <c r="F13" s="76">
+        <f>'Exergy calcs'!AD32</f>
+        <v>4357275.1384821674</v>
+      </c>
+      <c r="G13" s="76">
+        <f>A13-$A$12</f>
         <v>1</v>
       </c>
       <c r="H13" s="22">
-        <f t="shared" ref="H13:H32" si="2">B13/$B$12</f>
+        <f>B13/$B$12</f>
         <v>1.0462856254344566</v>
       </c>
       <c r="I13" s="20">
-        <f t="shared" ref="I13:I32" si="3">C13/$C$12</f>
-        <v>1.0492432778224892</v>
+        <f>C13/$C$12</f>
+        <v>1.0598546016298735</v>
       </c>
       <c r="J13" s="20">
-        <f t="shared" ref="J13:J32" si="4">D13/$D$12</f>
-        <v>1.0598546016298735</v>
-      </c>
-      <c r="K13" s="73">
+        <f>D13/$D$12</f>
+        <v>1.049243271788266</v>
+      </c>
+      <c r="K13" s="72">
         <f t="shared" si="0"/>
-        <v>1.0553174538545134</v>
+        <v>1.0553504171748396</v>
       </c>
       <c r="L13" s="20">
-        <f t="shared" ref="L13:L32" si="5">F13/$F$12</f>
-        <v>1.0552746197924234</v>
+        <f t="shared" ref="L13:L32" si="1">F13/$F$12</f>
+        <v>1.0552790562169541</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="1">
+      <c r="A14" s="73">
         <v>1993</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="75">
         <v>228844</v>
       </c>
-      <c r="C14" s="82">
-        <v>5229661</v>
-      </c>
-      <c r="D14" s="76">
+      <c r="C14" s="75">
         <v>385944</v>
       </c>
-      <c r="E14" s="69">
-        <v>4292419.228422883</v>
-      </c>
-      <c r="F14" s="77">
-        <v>4538059.0322954869</v>
-      </c>
-      <c r="G14" s="77">
+      <c r="D14" s="81">
+        <f>'Employment calcs'!F9</f>
+        <v>5229661.1760000009</v>
+      </c>
+      <c r="E14" s="68">
+        <f>'Exergy calcs'!AO33</f>
+        <v>4269298.2259212239</v>
+      </c>
+      <c r="F14" s="76">
+        <f>'Exergy calcs'!AD33</f>
+        <v>4534729.6079352479</v>
+      </c>
+      <c r="G14" s="76">
+        <f>A14-$A$12</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="22">
+        <f>B14/$B$12</f>
+        <v>1.0465554457981194</v>
+      </c>
+      <c r="I14" s="20">
+        <f>C14/$C$12</f>
+        <v>1.116506736173992</v>
+      </c>
+      <c r="J14" s="20">
+        <f>D14/$D$12</f>
+        <v>1.0791928743751737</v>
+      </c>
+      <c r="K14" s="72">
+        <f t="shared" si="0"/>
+        <v>1.0984891078023766</v>
+      </c>
+      <c r="L14" s="20">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H14" s="22">
-        <f t="shared" si="2"/>
-        <v>1.0465554457981194</v>
-      </c>
-      <c r="I14" s="20">
-        <f t="shared" si="3"/>
-        <v>1.0791929259786623</v>
-      </c>
-      <c r="J14" s="20">
-        <f t="shared" si="4"/>
-        <v>1.116506736173992</v>
-      </c>
-      <c r="K14" s="73">
+        <v>1.0982563709593873</v>
+      </c>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="73">
+        <v>1994</v>
+      </c>
+      <c r="B15" s="75">
+        <v>230368</v>
+      </c>
+      <c r="C15" s="75">
+        <v>404527</v>
+      </c>
+      <c r="D15" s="81">
+        <f>'Employment calcs'!F10</f>
+        <v>5359295.230200001</v>
+      </c>
+      <c r="E15" s="68">
+        <f>'Exergy calcs'!AO34</f>
+        <v>4398847.4545641178</v>
+      </c>
+      <c r="F15" s="76">
+        <f>'Exergy calcs'!AD34</f>
+        <v>4671420.4746732665</v>
+      </c>
+      <c r="G15" s="76">
+        <f>A15-$A$12</f>
+        <v>3</v>
+      </c>
+      <c r="H15" s="22">
+        <f>B15/$B$12</f>
+        <v>1.0535250429883292</v>
+      </c>
+      <c r="I15" s="20">
+        <f>C15/$C$12</f>
+        <v>1.1702659465214034</v>
+      </c>
+      <c r="J15" s="20">
+        <f>D15/$D$12</f>
+        <v>1.1059441576535314</v>
+      </c>
+      <c r="K15" s="72">
         <f t="shared" si="0"/>
-        <v>1.0984769291740351</v>
-      </c>
-      <c r="L14" s="20">
-        <f t="shared" si="5"/>
-        <v>1.0982548835654733</v>
-      </c>
-      <c r="O14" s="18"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>1994</v>
-      </c>
-      <c r="B15" s="76">
-        <v>230368</v>
-      </c>
-      <c r="C15" s="82">
-        <v>5359295</v>
-      </c>
-      <c r="D15" s="76">
-        <v>404527</v>
-      </c>
-      <c r="E15" s="69">
-        <v>4422541.5858384809</v>
-      </c>
-      <c r="F15" s="77">
-        <v>4674832.4295767751</v>
-      </c>
-      <c r="G15" s="77">
+        <v>1.131822084103818</v>
+      </c>
+      <c r="L15" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H15" s="22">
-        <f t="shared" si="2"/>
-        <v>1.0535250429883292</v>
-      </c>
-      <c r="I15" s="20">
-        <f t="shared" si="3"/>
-        <v>1.1059442002517592</v>
-      </c>
-      <c r="J15" s="20">
-        <f t="shared" si="4"/>
-        <v>1.1702659465214034</v>
-      </c>
-      <c r="K15" s="73">
+        <v>1.1313612367896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="73">
+        <v>1995</v>
+      </c>
+      <c r="B16" s="75">
+        <v>230830</v>
+      </c>
+      <c r="C16" s="75">
+        <v>421302</v>
+      </c>
+      <c r="D16" s="81">
+        <f>'Employment calcs'!F11</f>
+        <v>5455094.2750000004</v>
+      </c>
+      <c r="E16" s="68">
+        <f>'Exergy calcs'!AO35</f>
+        <v>4339928.8724886021</v>
+      </c>
+      <c r="F16" s="76">
+        <f>'Exergy calcs'!AD35</f>
+        <v>4607764.9834105158</v>
+      </c>
+      <c r="G16" s="76">
+        <f>A16-$A$12</f>
+        <v>4</v>
+      </c>
+      <c r="H16" s="22">
+        <f>B16/$B$12</f>
+        <v>1.0556378736326053</v>
+      </c>
+      <c r="I16" s="20">
+        <f>C16/$C$12</f>
+        <v>1.2187947499211678</v>
+      </c>
+      <c r="J16" s="20">
+        <f>D16/$D$12</f>
+        <v>1.1257132484303041</v>
+      </c>
+      <c r="K16" s="72">
         <f t="shared" si="0"/>
-        <v>1.1317766606271742</v>
-      </c>
-      <c r="L15" s="20">
-        <f t="shared" si="5"/>
-        <v>1.1313553898473481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>1995</v>
-      </c>
-      <c r="B16" s="76">
-        <v>230830</v>
-      </c>
-      <c r="C16" s="82">
-        <v>5455094</v>
-      </c>
-      <c r="D16" s="76">
-        <v>421302</v>
-      </c>
-      <c r="E16" s="69">
-        <v>4364421.4297012482</v>
-      </c>
-      <c r="F16" s="77">
-        <v>4611291.9116491368</v>
-      </c>
-      <c r="G16" s="77">
+        <v>1.1166623512315266</v>
+      </c>
+      <c r="L16" s="20">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H16" s="22">
-        <f t="shared" si="2"/>
-        <v>1.0556378736326053</v>
-      </c>
-      <c r="I16" s="20">
-        <f t="shared" si="3"/>
-        <v>1.1257132833942096</v>
-      </c>
-      <c r="J16" s="20">
-        <f t="shared" si="4"/>
-        <v>1.2187947499211678</v>
-      </c>
-      <c r="K16" s="73">
+        <v>1.1159446508252393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="73">
+        <v>1996</v>
+      </c>
+      <c r="B17" s="75">
+        <v>238641</v>
+      </c>
+      <c r="C17" s="75">
+        <v>433560</v>
+      </c>
+      <c r="D17" s="81">
+        <f>'Employment calcs'!F12</f>
+        <v>5431167.6096999999</v>
+      </c>
+      <c r="E17" s="68">
+        <f>'Exergy calcs'!AO36</f>
+        <v>4644244.1755812671</v>
+      </c>
+      <c r="F17" s="76">
+        <f>'Exergy calcs'!AD36</f>
+        <v>4930048.2644763915</v>
+      </c>
+      <c r="G17" s="76">
+        <f>A17-$A$12</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="22">
+        <f>B17/$B$12</f>
+        <v>1.091359345845681</v>
+      </c>
+      <c r="I17" s="20">
+        <f>C17/$C$12</f>
+        <v>1.2542562147244056</v>
+      </c>
+      <c r="J17" s="20">
+        <f>D17/$D$12</f>
+        <v>1.1207757418060087</v>
+      </c>
+      <c r="K17" s="72">
         <f t="shared" si="0"/>
-        <v>1.1169030783326042</v>
-      </c>
-      <c r="L16" s="20">
-        <f t="shared" si="5"/>
-        <v>1.1159779600647721</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1">
-        <v>1996</v>
-      </c>
-      <c r="B17" s="76">
-        <v>238641</v>
-      </c>
-      <c r="C17" s="82">
-        <v>5431168</v>
-      </c>
-      <c r="D17" s="76">
-        <v>433560</v>
-      </c>
-      <c r="E17" s="69">
-        <v>4668629.3056461457</v>
-      </c>
-      <c r="F17" s="77">
-        <v>4933559.723205734</v>
-      </c>
-      <c r="G17" s="77">
+        <v>1.1949625842195228</v>
+      </c>
+      <c r="L17" s="20">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H17" s="22">
-        <f t="shared" si="2"/>
-        <v>1.091359345845681</v>
-      </c>
-      <c r="I17" s="20">
-        <f t="shared" si="3"/>
-        <v>1.1207759136589694</v>
-      </c>
-      <c r="J17" s="20">
-        <f t="shared" si="4"/>
-        <v>1.2542562147244056</v>
-      </c>
-      <c r="K17" s="73">
+        <v>1.1939977426931474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="73">
+        <v>1997</v>
+      </c>
+      <c r="B18" s="75">
+        <v>244828</v>
+      </c>
+      <c r="C18" s="75">
+        <v>445496</v>
+      </c>
+      <c r="D18" s="81">
+        <f>'Employment calcs'!F13</f>
+        <v>5274423.1947000008</v>
+      </c>
+      <c r="E18" s="68">
+        <f>'Exergy calcs'!AO37</f>
+        <v>4918478.1850079801</v>
+      </c>
+      <c r="F18" s="76">
+        <f>'Exergy calcs'!AD37</f>
+        <v>5219154.6937368875</v>
+      </c>
+      <c r="G18" s="76">
+        <f>A18-$A$12</f>
+        <v>6</v>
+      </c>
+      <c r="H18" s="22">
+        <f>B18/$B$12</f>
+        <v>1.1196538982182709</v>
+      </c>
+      <c r="I18" s="20">
+        <f>C18/$C$12</f>
+        <v>1.2887861579363036</v>
+      </c>
+      <c r="J18" s="20">
+        <f>D18/$D$12</f>
+        <v>1.0884299645035702</v>
+      </c>
+      <c r="K18" s="72">
         <f t="shared" si="0"/>
-        <v>1.1947531939936704</v>
-      </c>
-      <c r="L17" s="20">
-        <f t="shared" si="5"/>
-        <v>1.1939699375465991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1">
-        <v>1997</v>
-      </c>
-      <c r="B18" s="76">
-        <v>244828</v>
-      </c>
-      <c r="C18" s="82">
-        <v>5274423</v>
-      </c>
-      <c r="D18" s="76">
-        <v>445496</v>
-      </c>
-      <c r="E18" s="69">
-        <v>4942159.5560984733</v>
-      </c>
-      <c r="F18" s="77">
-        <v>5222564.8111739187</v>
-      </c>
-      <c r="G18" s="77">
+        <v>1.265522909688287</v>
+      </c>
+      <c r="L18" s="20">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H18" s="22">
-        <f t="shared" si="2"/>
-        <v>1.1196538982182709</v>
-      </c>
-      <c r="I18" s="20">
-        <f t="shared" si="3"/>
-        <v>1.088430013000681</v>
-      </c>
-      <c r="J18" s="20">
-        <f t="shared" si="4"/>
-        <v>1.2887861579363036</v>
-      </c>
-      <c r="K18" s="73">
+        <v>1.264015804467999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="73">
+        <v>1998</v>
+      </c>
+      <c r="B19" s="75">
+        <v>251768</v>
+      </c>
+      <c r="C19" s="75">
+        <v>459351</v>
+      </c>
+      <c r="D19" s="81">
+        <f>'Employment calcs'!F14</f>
+        <v>5314835.1240000008</v>
+      </c>
+      <c r="E19" s="68">
+        <f>'Exergy calcs'!AO38</f>
+        <v>5103146.9474564195</v>
+      </c>
+      <c r="F19" s="76">
+        <f>'Exergy calcs'!AD38</f>
+        <v>5415400.5563141815</v>
+      </c>
+      <c r="G19" s="76">
+        <f>A19-$A$12</f>
+        <v>7</v>
+      </c>
+      <c r="H19" s="22">
+        <f>B19/$B$12</f>
+        <v>1.1513920901474408</v>
+      </c>
+      <c r="I19" s="20">
+        <f>C19/$C$12</f>
+        <v>1.3288676226816829</v>
+      </c>
+      <c r="J19" s="20">
+        <f>D19/$D$12</f>
+        <v>1.0967693701882939</v>
+      </c>
+      <c r="K19" s="72">
         <f t="shared" si="0"/>
-        <v>1.2647525704673135</v>
-      </c>
-      <c r="L18" s="20">
-        <f t="shared" si="5"/>
-        <v>1.2639120090307985</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1">
-        <v>1998</v>
-      </c>
-      <c r="B19" s="76">
-        <v>251768</v>
-      </c>
-      <c r="C19" s="82">
-        <v>5314835</v>
-      </c>
-      <c r="D19" s="76">
-        <v>459351</v>
-      </c>
-      <c r="E19" s="69">
-        <v>5127293.8431901243</v>
-      </c>
-      <c r="F19" s="77">
-        <v>5418877.7092998354</v>
-      </c>
-      <c r="G19" s="77">
+        <v>1.3130381249218592</v>
+      </c>
+      <c r="L19" s="20">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H19" s="22">
-        <f t="shared" si="2"/>
-        <v>1.1513920901474408</v>
-      </c>
-      <c r="I19" s="20">
-        <f t="shared" si="3"/>
-        <v>1.0967694339544769</v>
-      </c>
-      <c r="J19" s="20">
-        <f t="shared" si="4"/>
-        <v>1.3288676226816829</v>
-      </c>
-      <c r="K19" s="73">
+        <v>1.311544166131015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="73">
+        <v>1999</v>
+      </c>
+      <c r="B20" s="75">
+        <v>249884</v>
+      </c>
+      <c r="C20" s="75">
+        <v>476129</v>
+      </c>
+      <c r="D20" s="81">
+        <f>'Employment calcs'!F15</f>
+        <v>5493845.7938000001</v>
+      </c>
+      <c r="E20" s="68">
+        <f>'Exergy calcs'!AO39</f>
+        <v>5169736.7808770612</v>
+      </c>
+      <c r="F20" s="76">
+        <f>'Exergy calcs'!AD39</f>
+        <v>5487653.2121359659</v>
+      </c>
+      <c r="G20" s="76">
+        <f>A20-$A$12</f>
+        <v>8</v>
+      </c>
+      <c r="H20" s="22">
+        <f>B20/$B$12</f>
+        <v>1.1427761314162368</v>
+      </c>
+      <c r="I20" s="20">
+        <f>C20/$C$12</f>
+        <v>1.3774051048540374</v>
+      </c>
+      <c r="J20" s="20">
+        <f>D20/$D$12</f>
+        <v>1.1337100118061223</v>
+      </c>
+      <c r="K20" s="72">
         <f t="shared" si="0"/>
-        <v>1.3121304551395852</v>
-      </c>
-      <c r="L19" s="20">
-        <f t="shared" si="5"/>
-        <v>1.3114216596411876</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1">
-        <v>1999</v>
-      </c>
-      <c r="B20" s="76">
-        <v>249884</v>
-      </c>
-      <c r="C20" s="82">
-        <v>5493846</v>
-      </c>
-      <c r="D20" s="76">
-        <v>476129</v>
-      </c>
-      <c r="E20" s="69">
-        <v>5194696.9759658789</v>
-      </c>
-      <c r="F20" s="77">
-        <v>5491247.4802287556</v>
-      </c>
-      <c r="G20" s="77">
+        <v>1.3301716683831304</v>
+      </c>
+      <c r="L20" s="20">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H20" s="22">
-        <f t="shared" si="2"/>
-        <v>1.1427761314162368</v>
-      </c>
-      <c r="I20" s="20">
-        <f t="shared" si="3"/>
-        <v>1.1337101467219712</v>
-      </c>
-      <c r="J20" s="20">
-        <f t="shared" si="4"/>
-        <v>1.3774051048540374</v>
-      </c>
-      <c r="K20" s="73">
+        <v>1.3290428808142796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="73">
+        <v>2000</v>
+      </c>
+      <c r="B21" s="75">
+        <v>262040</v>
+      </c>
+      <c r="C21" s="75">
+        <v>494071</v>
+      </c>
+      <c r="D21" s="81">
+        <f>'Employment calcs'!F16</f>
+        <v>5624704.4455999993</v>
+      </c>
+      <c r="E21" s="68">
+        <f>'Exergy calcs'!AO40</f>
+        <v>5442330.2331232307</v>
+      </c>
+      <c r="F21" s="76">
+        <f>'Exergy calcs'!AD40</f>
+        <v>5775501.9147123108</v>
+      </c>
+      <c r="G21" s="76">
+        <f>A21-$A$12</f>
+        <v>9</v>
+      </c>
+      <c r="H21" s="22">
+        <f>B21/$B$12</f>
+        <v>1.1983682727838145</v>
+      </c>
+      <c r="I21" s="20">
+        <f>C21/$C$12</f>
+        <v>1.4293099507913594</v>
+      </c>
+      <c r="J21" s="20">
+        <f>D21/$D$12</f>
+        <v>1.1607140030438332</v>
+      </c>
+      <c r="K21" s="72">
         <f t="shared" si="0"/>
-        <v>1.3293796524728627</v>
-      </c>
-      <c r="L20" s="20">
-        <f t="shared" si="5"/>
-        <v>1.3289358554195088</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B21" s="76">
-        <v>262040</v>
-      </c>
-      <c r="C21" s="82">
-        <v>5624704</v>
-      </c>
-      <c r="D21" s="76">
-        <v>494071</v>
-      </c>
-      <c r="E21" s="69">
-        <v>5468185.6022830699</v>
-      </c>
-      <c r="F21" s="77">
-        <v>5779225.087871328</v>
-      </c>
-      <c r="G21" s="77">
+        <v>1.400309878998776</v>
+      </c>
+      <c r="L21" s="20">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="H21" s="22">
-        <f t="shared" si="2"/>
-        <v>1.1983682727838145</v>
-      </c>
-      <c r="I21" s="20">
-        <f t="shared" si="3"/>
-        <v>1.1607140056542644</v>
-      </c>
-      <c r="J21" s="20">
-        <f t="shared" si="4"/>
-        <v>1.4293099507913594</v>
-      </c>
-      <c r="K21" s="73">
+        <v>1.3987563364795679</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="73">
+        <v>2001</v>
+      </c>
+      <c r="B22" s="75">
+        <v>263474</v>
+      </c>
+      <c r="C22" s="75">
+        <v>511560</v>
+      </c>
+      <c r="D22" s="81">
+        <f>'Employment calcs'!F17</f>
+        <v>5898385.4752000002</v>
+      </c>
+      <c r="E22" s="68">
+        <f>'Exergy calcs'!AO41</f>
+        <v>5751208.9759781789</v>
+      </c>
+      <c r="F22" s="76">
+        <f>'Exergy calcs'!AD41</f>
+        <v>6101936.1516594877</v>
+      </c>
+      <c r="G22" s="76">
+        <f>A22-$A$12</f>
+        <v>10</v>
+      </c>
+      <c r="H22" s="22">
+        <f>B22/$B$12</f>
+        <v>1.2049262795887754</v>
+      </c>
+      <c r="I22" s="20">
+        <f>C22/$C$12</f>
+        <v>1.4799043020675728</v>
+      </c>
+      <c r="J22" s="20">
+        <f>D22/$D$12</f>
+        <v>1.2171908200031087</v>
+      </c>
+      <c r="K22" s="72">
         <f t="shared" si="0"/>
-        <v>1.399368376876027</v>
-      </c>
-      <c r="L21" s="20">
-        <f t="shared" si="5"/>
-        <v>1.3986292665673528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B22" s="76">
-        <v>263474</v>
-      </c>
-      <c r="C22" s="82">
-        <v>5898385</v>
-      </c>
-      <c r="D22" s="76">
-        <v>511560</v>
-      </c>
-      <c r="E22" s="69">
-        <v>5778322.388848721</v>
-      </c>
-      <c r="F22" s="77">
-        <v>6105840.4831128456</v>
-      </c>
-      <c r="G22" s="77">
+        <v>1.4797842836205422</v>
+      </c>
+      <c r="L22" s="20">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H22" s="22">
-        <f t="shared" si="2"/>
-        <v>1.2049262795887754</v>
-      </c>
-      <c r="I22" s="20">
-        <f t="shared" si="3"/>
-        <v>1.2171908211065023</v>
-      </c>
-      <c r="J22" s="20">
-        <f t="shared" si="4"/>
-        <v>1.4799043020675728</v>
-      </c>
-      <c r="K22" s="73">
+        <v>1.4778147393883445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="73">
+        <v>2002</v>
+      </c>
+      <c r="B23" s="75">
+        <v>263811</v>
+      </c>
+      <c r="C23" s="75">
+        <v>528535</v>
+      </c>
+      <c r="D23" s="81">
+        <f>'Employment calcs'!F18</f>
+        <v>6219998.2655999996</v>
+      </c>
+      <c r="E23" s="68">
+        <f>'Exergy calcs'!AO42</f>
+        <v>6027856.8899049722</v>
+      </c>
+      <c r="F23" s="76">
+        <f>'Exergy calcs'!AD42</f>
+        <v>6394906.7801511111</v>
+      </c>
+      <c r="G23" s="76">
+        <f>A23-$A$12</f>
+        <v>11</v>
+      </c>
+      <c r="H23" s="22">
+        <f>B23/$B$12</f>
+        <v>1.2064674569202063</v>
+      </c>
+      <c r="I23" s="20">
+        <f>C23/$C$12</f>
+        <v>1.5290116903066788</v>
+      </c>
+      <c r="J23" s="20">
+        <f>D23/$D$12</f>
+        <v>1.283558835066958</v>
+      </c>
+      <c r="K23" s="72">
         <f t="shared" si="0"/>
-        <v>1.4787357654746731</v>
-      </c>
-      <c r="L22" s="20">
-        <f t="shared" si="5"/>
-        <v>1.4776734020267848</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B23" s="76">
-        <v>263811</v>
-      </c>
-      <c r="C23" s="82">
-        <v>6219998</v>
-      </c>
-      <c r="D23" s="76">
-        <v>528535</v>
-      </c>
-      <c r="E23" s="69">
-        <v>6056448.6768843662</v>
-      </c>
-      <c r="F23" s="77">
-        <v>6399023.9974761438</v>
-      </c>
-      <c r="G23" s="77">
+        <v>1.5509657059675972</v>
+      </c>
+      <c r="L23" s="20">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H23" s="22">
-        <f t="shared" si="2"/>
-        <v>1.2064674569202063</v>
-      </c>
-      <c r="I23" s="20">
-        <f t="shared" si="3"/>
-        <v>1.2835588848304753</v>
-      </c>
-      <c r="J23" s="20">
-        <f t="shared" si="4"/>
-        <v>1.5290116903066788</v>
-      </c>
-      <c r="K23" s="73">
+        <v>1.5487686632302125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="73">
+        <v>2003</v>
+      </c>
+      <c r="B24" s="75">
+        <v>284017</v>
+      </c>
+      <c r="C24" s="75">
+        <v>553069</v>
+      </c>
+      <c r="D24" s="81">
+        <f>'Employment calcs'!F19</f>
+        <v>6823150.3405000009</v>
+      </c>
+      <c r="E24" s="68">
+        <f>'Exergy calcs'!AO43</f>
+        <v>6382779.9469416738</v>
+      </c>
+      <c r="F24" s="76">
+        <f>'Exergy calcs'!AD43</f>
+        <v>6771416.148916523</v>
+      </c>
+      <c r="G24" s="76">
+        <f>A24-$A$12</f>
+        <v>12</v>
+      </c>
+      <c r="H24" s="22">
+        <f>B24/$B$12</f>
+        <v>1.29887407163502</v>
+      </c>
+      <c r="I24" s="20">
+        <f>C24/$C$12</f>
+        <v>1.5999866925486952</v>
+      </c>
+      <c r="J24" s="20">
+        <f>D24/$D$12</f>
+        <v>1.4080252965623752</v>
+      </c>
+      <c r="K24" s="72">
         <f t="shared" si="0"/>
-        <v>1.5499113181282804</v>
-      </c>
-      <c r="L23" s="20">
-        <f t="shared" si="5"/>
-        <v>1.5486266937620641</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B24" s="76">
-        <v>284017</v>
-      </c>
-      <c r="C24" s="82">
-        <v>6823150</v>
-      </c>
-      <c r="D24" s="76">
-        <v>553069</v>
-      </c>
-      <c r="E24" s="69">
-        <v>6414717.3765114779</v>
-      </c>
-      <c r="F24" s="77">
-        <v>6776015.1387745747</v>
-      </c>
-      <c r="G24" s="77">
+        <v>1.642287298330382</v>
+      </c>
+      <c r="L24" s="20">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H24" s="22">
-        <f t="shared" si="2"/>
-        <v>1.29887407163502</v>
-      </c>
-      <c r="I24" s="20">
-        <f t="shared" si="3"/>
-        <v>1.4080253410099259</v>
-      </c>
-      <c r="J24" s="20">
-        <f t="shared" si="4"/>
-        <v>1.5999866925486952</v>
-      </c>
-      <c r="K24" s="73">
+        <v>1.6399546541763821</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="73">
+        <v>2004</v>
+      </c>
+      <c r="B25" s="75">
+        <v>298976</v>
+      </c>
+      <c r="C25" s="75">
+        <v>577441</v>
+      </c>
+      <c r="D25" s="81">
+        <f>'Employment calcs'!F20</f>
+        <v>7354121.3855999997</v>
+      </c>
+      <c r="E25" s="68">
+        <f>'Exergy calcs'!AO44</f>
+        <v>6852002.8762267875</v>
+      </c>
+      <c r="F25" s="76">
+        <f>'Exergy calcs'!AD44</f>
+        <v>7267659.9643259216</v>
+      </c>
+      <c r="G25" s="76">
+        <f>A25-$A$12</f>
+        <v>13</v>
+      </c>
+      <c r="H25" s="22">
+        <f>B25/$B$12</f>
+        <v>1.3672849668898401</v>
+      </c>
+      <c r="I25" s="20">
+        <f>C25/$C$12</f>
+        <v>1.6704930410708447</v>
+      </c>
+      <c r="J25" s="20">
+        <f>D25/$D$12</f>
+        <v>1.5175964808297548</v>
+      </c>
+      <c r="K25" s="72">
         <f t="shared" si="0"/>
-        <v>1.6415961886040289</v>
-      </c>
-      <c r="L24" s="20">
-        <f t="shared" si="5"/>
-        <v>1.6398622548346342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B25" s="76">
-        <v>298976</v>
-      </c>
-      <c r="C25" s="82">
-        <v>7354121</v>
-      </c>
-      <c r="D25" s="76">
-        <v>577441</v>
-      </c>
-      <c r="E25" s="69">
-        <v>6886425.6460734764</v>
-      </c>
-      <c r="F25" s="77">
-        <v>7272616.8431838444</v>
-      </c>
-      <c r="G25" s="77">
+        <v>1.7630182123296265</v>
+      </c>
+      <c r="L25" s="20">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="H25" s="22">
-        <f t="shared" si="2"/>
-        <v>1.3672849668898401</v>
-      </c>
-      <c r="I25" s="20">
-        <f t="shared" si="3"/>
-        <v>1.517596524897336</v>
-      </c>
-      <c r="J25" s="20">
-        <f t="shared" si="4"/>
-        <v>1.6704930410708447</v>
-      </c>
-      <c r="K25" s="73">
+        <v>1.7601388721877216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="73">
+        <v>2005</v>
+      </c>
+      <c r="B26" s="75">
+        <v>315580</v>
+      </c>
+      <c r="C26" s="75">
+        <v>611807</v>
+      </c>
+      <c r="D26" s="81">
+        <f>'Employment calcs'!F21</f>
+        <v>7616225.5487999991</v>
+      </c>
+      <c r="E26" s="68">
+        <f>'Exergy calcs'!AO45</f>
+        <v>7177587.4489320396</v>
+      </c>
+      <c r="F26" s="76">
+        <f>'Exergy calcs'!AD45</f>
+        <v>7612222.180648311</v>
+      </c>
+      <c r="G26" s="76">
+        <f>A26-$A$12</f>
+        <v>14</v>
+      </c>
+      <c r="H26" s="22">
+        <f>B26/$B$12</f>
+        <v>1.4432188197417042</v>
+      </c>
+      <c r="I26" s="20">
+        <f>C26/$C$12</f>
+        <v>1.769911274014887</v>
+      </c>
+      <c r="J26" s="20">
+        <f>D26/$D$12</f>
+        <v>1.5716842956517962</v>
+      </c>
+      <c r="K26" s="72">
         <f t="shared" si="0"/>
-        <v>1.7623114831361626</v>
-      </c>
-      <c r="L25" s="20">
-        <f t="shared" si="5"/>
-        <v>1.7600447476521726</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B26" s="76">
-        <v>315580</v>
-      </c>
-      <c r="C26" s="82">
-        <v>7616226</v>
-      </c>
-      <c r="D26" s="76">
-        <v>611807</v>
-      </c>
-      <c r="E26" s="69">
-        <v>7213237.0616349475</v>
-      </c>
-      <c r="F26" s="77">
-        <v>7617355.7248775298</v>
-      </c>
-      <c r="G26" s="77">
+        <v>1.8467910217842849</v>
+      </c>
+      <c r="L26" s="20">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="H26" s="22">
-        <f t="shared" si="2"/>
-        <v>1.4432188197417042</v>
-      </c>
-      <c r="I26" s="20">
-        <f t="shared" si="3"/>
-        <v>1.5716845168080233</v>
-      </c>
-      <c r="J26" s="20">
-        <f t="shared" si="4"/>
-        <v>1.769911274014887</v>
-      </c>
-      <c r="K26" s="73">
+        <v>1.843587651273858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="73">
+        <v>2006</v>
+      </c>
+      <c r="B27" s="75">
+        <v>325545</v>
+      </c>
+      <c r="C27" s="75">
+        <v>656444</v>
+      </c>
+      <c r="D27" s="81">
+        <f>'Employment calcs'!F22</f>
+        <v>7975498.6175999986</v>
+      </c>
+      <c r="E27" s="68">
+        <f>'Exergy calcs'!AO46</f>
+        <v>7390296.9882566622</v>
+      </c>
+      <c r="F27" s="76">
+        <f>'Exergy calcs'!AD46</f>
+        <v>7837677.6198742716</v>
+      </c>
+      <c r="G27" s="76">
+        <f>A27-$A$12</f>
+        <v>15</v>
+      </c>
+      <c r="H27" s="22">
+        <f>B27/$B$12</f>
+        <v>1.4887910218417297</v>
+      </c>
+      <c r="I27" s="20">
+        <f>C27/$C$12</f>
+        <v>1.8990427313833096</v>
+      </c>
+      <c r="J27" s="20">
+        <f>D27/$D$12</f>
+        <v>1.6458238857237517</v>
+      </c>
+      <c r="K27" s="72">
         <f t="shared" si="0"/>
-        <v>1.8459460912862351</v>
-      </c>
-      <c r="L26" s="20">
-        <f t="shared" si="5"/>
-        <v>1.843474944941492</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B27" s="76">
-        <v>325545</v>
-      </c>
-      <c r="C27" s="82">
-        <v>7975499</v>
-      </c>
-      <c r="D27" s="76">
-        <v>656444</v>
-      </c>
-      <c r="E27" s="69">
-        <v>7428298.1591594871</v>
-      </c>
-      <c r="F27" s="77">
-        <v>7843149.7884842781</v>
-      </c>
-      <c r="G27" s="77">
+        <v>1.9015211202007152</v>
+      </c>
+      <c r="L27" s="20">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="H27" s="22">
-        <f t="shared" si="2"/>
-        <v>1.4887910218417297</v>
-      </c>
-      <c r="I27" s="20">
-        <f t="shared" si="3"/>
-        <v>1.6458240987226316</v>
-      </c>
-      <c r="J27" s="20">
-        <f t="shared" si="4"/>
-        <v>1.8990427313833096</v>
-      </c>
-      <c r="K27" s="73">
+        <v>1.8981902172270901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="73">
+        <v>2007</v>
+      </c>
+      <c r="B28" s="75">
+        <v>332112</v>
+      </c>
+      <c r="C28" s="75">
+        <v>713978</v>
+      </c>
+      <c r="D28" s="81">
+        <f>'Employment calcs'!F23</f>
+        <v>8324563.0463999994</v>
+      </c>
+      <c r="E28" s="68">
+        <f>'Exergy calcs'!AO47</f>
+        <v>7709999.3301457707</v>
+      </c>
+      <c r="F28" s="76">
+        <f>'Exergy calcs'!AD47</f>
+        <v>8179516.6337993983</v>
+      </c>
+      <c r="G28" s="76">
+        <f>A28-$A$12</f>
+        <v>16</v>
+      </c>
+      <c r="H28" s="22">
+        <f>B28/$B$12</f>
+        <v>1.5188234002853693</v>
+      </c>
+      <c r="I28" s="20">
+        <f>C28/$C$12</f>
+        <v>2.065484232116666</v>
+      </c>
+      <c r="J28" s="20">
+        <f>D28/$D$12</f>
+        <v>1.717856820856833</v>
+      </c>
+      <c r="K28" s="72">
         <f t="shared" si="0"/>
-        <v>1.9009825733775598</v>
-      </c>
-      <c r="L27" s="20">
-        <f t="shared" si="5"/>
-        <v>1.8981193273242325</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B28" s="76">
-        <v>332112</v>
-      </c>
-      <c r="C28" s="82">
-        <v>8324563</v>
-      </c>
-      <c r="D28" s="76">
-        <v>713978</v>
-      </c>
-      <c r="E28" s="69">
-        <v>7749663.7020158246</v>
-      </c>
-      <c r="F28" s="77">
-        <v>8185228.3033486856</v>
-      </c>
-      <c r="G28" s="77">
+        <v>1.9837804334929643</v>
+      </c>
+      <c r="L28" s="20">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="H28" s="22">
-        <f t="shared" si="2"/>
-        <v>1.5188234002853693</v>
-      </c>
-      <c r="I28" s="20">
-        <f t="shared" si="3"/>
-        <v>1.7178569512371282</v>
-      </c>
-      <c r="J28" s="20">
-        <f t="shared" si="4"/>
-        <v>2.065484232116666</v>
-      </c>
-      <c r="K28" s="73">
+        <v>1.9809794698054117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="73">
+        <v>2008</v>
+      </c>
+      <c r="B29" s="75">
+        <v>346156</v>
+      </c>
+      <c r="C29" s="75">
+        <v>789160</v>
+      </c>
+      <c r="D29" s="81">
+        <f>'Employment calcs'!F24</f>
+        <v>8666390.8368000016</v>
+      </c>
+      <c r="E29" s="68">
+        <f>'Exergy calcs'!AO48</f>
+        <v>7564308.2785006622</v>
+      </c>
+      <c r="F29" s="76">
+        <f>'Exergy calcs'!AD48</f>
+        <v>8015642.6207443634</v>
+      </c>
+      <c r="G29" s="76">
+        <f>A29-$A$12</f>
+        <v>17</v>
+      </c>
+      <c r="H29" s="22">
+        <f>B29/$B$12</f>
+        <v>1.5830497932901622</v>
+      </c>
+      <c r="I29" s="20">
+        <f>C29/$C$12</f>
+        <v>2.2829800590735121</v>
+      </c>
+      <c r="J29" s="20">
+        <f>D29/$D$12</f>
+        <v>1.7883964032978603</v>
+      </c>
+      <c r="K29" s="72">
         <f t="shared" si="0"/>
-        <v>1.9832235232646658</v>
-      </c>
-      <c r="L28" s="20">
-        <f t="shared" si="5"/>
-        <v>1.9809056896961263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B29" s="76">
-        <v>346156</v>
-      </c>
-      <c r="C29" s="82">
-        <v>8666391</v>
-      </c>
-      <c r="D29" s="76">
-        <v>789160</v>
-      </c>
-      <c r="E29" s="69">
-        <v>7605601.3706432842</v>
-      </c>
-      <c r="F29" s="77">
-        <v>8021588.826012901</v>
-      </c>
-      <c r="G29" s="77">
+        <v>1.9462941711455051</v>
+      </c>
+      <c r="L29" s="20">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="H29" s="22">
-        <f t="shared" si="2"/>
-        <v>1.5830497932901622</v>
-      </c>
-      <c r="I29" s="20">
-        <f t="shared" si="3"/>
-        <v>1.7883965826781403</v>
-      </c>
-      <c r="J29" s="20">
-        <f t="shared" si="4"/>
-        <v>2.2829800590735121</v>
-      </c>
-      <c r="K29" s="73">
+        <v>1.9412911764709122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="73">
+        <v>2009</v>
+      </c>
+      <c r="B30" s="75">
+        <v>346703</v>
+      </c>
+      <c r="C30" s="75">
+        <v>835924</v>
+      </c>
+      <c r="D30" s="81">
+        <f>'Employment calcs'!F25</f>
+        <v>8694192.7514999993</v>
+      </c>
+      <c r="E30" s="68">
+        <f>'Exergy calcs'!AO49</f>
+        <v>7977225.1376591967</v>
+      </c>
+      <c r="F30" s="76">
+        <f>'Exergy calcs'!AD49</f>
+        <v>8461200.696782466</v>
+      </c>
+      <c r="G30" s="76">
+        <f>A30-$A$12</f>
+        <v>18</v>
+      </c>
+      <c r="H30" s="22">
+        <f>B30/$B$12</f>
+        <v>1.585551348187173</v>
+      </c>
+      <c r="I30" s="20">
+        <f>C30/$C$12</f>
+        <v>2.4182647662083312</v>
+      </c>
+      <c r="J30" s="20">
+        <f>D30/$D$12</f>
+        <v>1.7941336063839641</v>
+      </c>
+      <c r="K30" s="72">
         <f t="shared" si="0"/>
-        <v>1.9463564003313114</v>
-      </c>
-      <c r="L29" s="20">
-        <f t="shared" si="5"/>
-        <v>1.9413033280148106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B30" s="76">
-        <v>346703</v>
-      </c>
-      <c r="C30" s="82">
-        <v>8694193</v>
-      </c>
-      <c r="D30" s="76">
-        <v>835924</v>
-      </c>
-      <c r="E30" s="69">
-        <v>8018650.6986746248</v>
-      </c>
-      <c r="F30" s="77">
-        <v>8467165.9775686879</v>
-      </c>
-      <c r="G30" s="77">
+        <v>2.0525375507856669</v>
+      </c>
+      <c r="L30" s="20">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="H30" s="22">
-        <f t="shared" si="2"/>
-        <v>1.585551348187173</v>
-      </c>
-      <c r="I30" s="20">
-        <f t="shared" si="3"/>
-        <v>1.794133803834169</v>
-      </c>
-      <c r="J30" s="20">
-        <f t="shared" si="4"/>
-        <v>2.4182647662083312</v>
-      </c>
-      <c r="K30" s="73">
+        <v>2.0491999247201949</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="73">
+        <v>2010</v>
+      </c>
+      <c r="B31" s="75">
+        <v>362769</v>
+      </c>
+      <c r="C31" s="75">
+        <v>883087</v>
+      </c>
+      <c r="D31" s="81">
+        <f>'Employment calcs'!F26</f>
+        <v>9030420.2939999998</v>
+      </c>
+      <c r="E31" s="68">
+        <f>'Exergy calcs'!AO50</f>
+        <v>8729753.358867418</v>
+      </c>
+      <c r="F31" s="76">
+        <f>'Exergy calcs'!AD50</f>
+        <v>9257115.3851322886</v>
+      </c>
+      <c r="G31" s="76">
+        <f>A31-$A$12</f>
+        <v>19</v>
+      </c>
+      <c r="H31" s="22">
+        <f>B31/$B$12</f>
+        <v>1.659024805180551</v>
+      </c>
+      <c r="I31" s="20">
+        <f>C31/$C$12</f>
+        <v>2.5547037500976364</v>
+      </c>
+      <c r="J31" s="20">
+        <f>D31/$D$12</f>
+        <v>1.8635175216746698</v>
+      </c>
+      <c r="K31" s="72">
         <f t="shared" si="0"/>
-        <v>2.0520602315062484</v>
-      </c>
-      <c r="L30" s="20">
-        <f t="shared" si="5"/>
-        <v>2.0491373775982962</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B31" s="76">
-        <v>362769</v>
-      </c>
-      <c r="C31" s="82">
-        <v>9030420</v>
-      </c>
-      <c r="D31" s="76">
-        <v>883087</v>
-      </c>
-      <c r="E31" s="69">
-        <v>8772780.9564347155</v>
-      </c>
-      <c r="F31" s="77">
-        <v>9263311.3591819797</v>
-      </c>
-      <c r="G31" s="77">
+        <v>2.2461628284231305</v>
+      </c>
+      <c r="L31" s="20">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="H31" s="22">
-        <f t="shared" si="2"/>
-        <v>1.659024805180551</v>
-      </c>
-      <c r="I31" s="20">
-        <f t="shared" si="3"/>
-        <v>1.8635176128273385</v>
-      </c>
-      <c r="J31" s="20">
-        <f t="shared" si="4"/>
-        <v>2.5547037500976364</v>
-      </c>
-      <c r="K31" s="73">
+        <v>2.2419607843072238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="73">
+        <v>2011</v>
+      </c>
+      <c r="B32" s="75">
+        <v>387307</v>
+      </c>
+      <c r="C32" s="75">
+        <v>931387</v>
+      </c>
+      <c r="D32" s="81">
+        <f>'Employment calcs'!F27</f>
+        <v>9239155.9890000001</v>
+      </c>
+      <c r="E32" s="68">
+        <f>'Exergy calcs'!AO51</f>
+        <v>10568287.237374637</v>
+      </c>
+      <c r="F32" s="76">
+        <f>'Exergy calcs'!AD51</f>
+        <v>11215351.745005729</v>
+      </c>
+      <c r="G32" s="76">
+        <f>A32-$A$12</f>
+        <v>20</v>
+      </c>
+      <c r="H32" s="22">
+        <f>B32/$B$12</f>
+        <v>1.7712426371053305</v>
+      </c>
+      <c r="I32" s="20">
+        <f>C32/$C$12</f>
+        <v>2.6944319887985975</v>
+      </c>
+      <c r="J32" s="20">
+        <f>D32/$D$12</f>
+        <v>1.9065922194592113</v>
+      </c>
+      <c r="K32" s="72">
         <f t="shared" si="0"/>
-        <v>2.245050395247989</v>
-      </c>
-      <c r="L31" s="20">
-        <f t="shared" si="5"/>
-        <v>2.2418123840630342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B32" s="76">
-        <v>387307</v>
-      </c>
-      <c r="C32" s="82">
-        <v>9435734</v>
-      </c>
-      <c r="D32" s="76">
-        <v>931387</v>
-      </c>
-      <c r="E32" s="69">
-        <v>10612309.40609034</v>
-      </c>
-      <c r="F32" s="77">
-        <v>11221690.93730079</v>
-      </c>
-      <c r="G32" s="77">
+        <v>2.7192170244508747</v>
+      </c>
+      <c r="L32" s="20">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H32" s="22">
-        <f t="shared" si="2"/>
-        <v>1.7712426371053305</v>
-      </c>
-      <c r="I32" s="20">
-        <f t="shared" si="3"/>
-        <v>1.9471582162240244</v>
-      </c>
-      <c r="J32" s="20">
-        <f t="shared" si="4"/>
-        <v>2.6944319887985975</v>
-      </c>
-      <c r="K32" s="73">
-        <f t="shared" si="0"/>
-        <v>2.7158058026242671</v>
-      </c>
-      <c r="L32" s="20">
-        <f t="shared" si="5"/>
-        <v>2.7157594879322264</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25">
-      <c r="B33" s="7"/>
-    </row>
-    <row r="35" spans="2:25">
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
+        <v>2.716221819477203</v>
+      </c>
+    </row>
+    <row r="35" spans="6:25">
+      <c r="F35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C10:C11"/>
+  <mergeCells count="7">
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="K10:K11"/>
@@ -6105,18 +6178,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="9" width="8.85546875" style="19"/>
+    <col min="1" max="9" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="19" t="str">
         <f>'Saudi Arabia Workbook'!A11</f>
         <v>Year</v>
@@ -6129,13 +6202,11 @@
         <f>'Saudi Arabia Workbook'!H9</f>
         <v>iGDP</v>
       </c>
-      <c r="D1" s="19" t="str">
-        <f>'Saudi Arabia Workbook'!I9</f>
-        <v>iLabor</v>
-      </c>
-      <c r="E1" s="19" t="str">
-        <f>'Saudi Arabia Workbook'!J9</f>
-        <v>iCapStk</v>
+      <c r="D1" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="F1" s="19" t="str">
         <f>'Saudi Arabia Workbook'!K9</f>
@@ -6145,767 +6216,833 @@
         <f>'Saudi Arabia Workbook'!L9</f>
         <v>iX</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="79" t="s">
         <v>108</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="19">
         <f>'Saudi Arabia Workbook'!A12</f>
         <v>1991</v>
       </c>
-      <c r="B2" s="78">
+      <c r="B2" s="77">
         <f>'Saudi Arabia Workbook'!G12</f>
         <v>0</v>
       </c>
-      <c r="C2" s="79">
+      <c r="C2" s="78">
         <f>'Saudi Arabia Workbook'!H12</f>
         <v>1</v>
       </c>
-      <c r="D2" s="79">
+      <c r="D2" s="78">
         <f>'Saudi Arabia Workbook'!I12</f>
         <v>1</v>
       </c>
-      <c r="E2" s="79">
+      <c r="E2" s="78">
         <f>'Saudi Arabia Workbook'!J12</f>
         <v>1</v>
       </c>
-      <c r="F2" s="79">
+      <c r="F2" s="78">
         <f>'Saudi Arabia Workbook'!K12</f>
         <v>1</v>
       </c>
-      <c r="G2" s="79">
+      <c r="G2" s="78">
         <f>'Saudi Arabia Workbook'!L12</f>
         <v>1</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="19">
         <f>'Saudi Arabia Workbook'!A13</f>
         <v>1992</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="77">
         <f>'Saudi Arabia Workbook'!G13</f>
         <v>1</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="78">
         <f>'Saudi Arabia Workbook'!H13</f>
         <v>1.0462856254344566</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="78">
         <f>'Saudi Arabia Workbook'!I13</f>
-        <v>1.0492432778224892</v>
-      </c>
-      <c r="E3" s="79">
+        <v>1.0598546016298735</v>
+      </c>
+      <c r="E3" s="78">
         <f>'Saudi Arabia Workbook'!J13</f>
-        <v>1.0598546016298735</v>
-      </c>
-      <c r="F3" s="79">
+        <v>1.049243271788266</v>
+      </c>
+      <c r="F3" s="78">
         <f>'Saudi Arabia Workbook'!K13</f>
-        <v>1.0553174538545134</v>
-      </c>
-      <c r="G3" s="79">
+        <v>1.0553504171748396</v>
+      </c>
+      <c r="G3" s="78">
         <f>'Saudi Arabia Workbook'!L13</f>
-        <v>1.0552746197924234</v>
-      </c>
-      <c r="H3" s="81" t="s">
+        <v>1.0552790562169541</v>
+      </c>
+      <c r="H3" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="19">
         <f>'Saudi Arabia Workbook'!A14</f>
         <v>1993</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="77">
         <f>'Saudi Arabia Workbook'!G14</f>
         <v>2</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="78">
         <f>'Saudi Arabia Workbook'!H14</f>
         <v>1.0465554457981194</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="78">
         <f>'Saudi Arabia Workbook'!I14</f>
-        <v>1.0791929259786623</v>
-      </c>
-      <c r="E4" s="79">
+        <v>1.116506736173992</v>
+      </c>
+      <c r="E4" s="78">
         <f>'Saudi Arabia Workbook'!J14</f>
-        <v>1.116506736173992</v>
-      </c>
-      <c r="F4" s="79">
+        <v>1.0791928743751737</v>
+      </c>
+      <c r="F4" s="78">
         <f>'Saudi Arabia Workbook'!K14</f>
-        <v>1.0984769291740351</v>
-      </c>
-      <c r="G4" s="79">
+        <v>1.0984891078023766</v>
+      </c>
+      <c r="G4" s="78">
         <f>'Saudi Arabia Workbook'!L14</f>
-        <v>1.0982548835654733</v>
-      </c>
-      <c r="H4" s="81" t="s">
+        <v>1.0982563709593873</v>
+      </c>
+      <c r="H4" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="19">
         <f>'Saudi Arabia Workbook'!A15</f>
         <v>1994</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="77">
         <f>'Saudi Arabia Workbook'!G15</f>
         <v>3</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="78">
         <f>'Saudi Arabia Workbook'!H15</f>
         <v>1.0535250429883292</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="78">
         <f>'Saudi Arabia Workbook'!I15</f>
-        <v>1.1059442002517592</v>
-      </c>
-      <c r="E5" s="79">
+        <v>1.1702659465214034</v>
+      </c>
+      <c r="E5" s="78">
         <f>'Saudi Arabia Workbook'!J15</f>
-        <v>1.1702659465214034</v>
-      </c>
-      <c r="F5" s="79">
+        <v>1.1059441576535314</v>
+      </c>
+      <c r="F5" s="78">
         <f>'Saudi Arabia Workbook'!K15</f>
-        <v>1.1317766606271742</v>
-      </c>
-      <c r="G5" s="79">
+        <v>1.131822084103818</v>
+      </c>
+      <c r="G5" s="78">
         <f>'Saudi Arabia Workbook'!L15</f>
-        <v>1.1313553898473481</v>
-      </c>
-      <c r="H5" s="81" t="s">
+        <v>1.1313612367896</v>
+      </c>
+      <c r="H5" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="19">
         <f>'Saudi Arabia Workbook'!A16</f>
         <v>1995</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="77">
         <f>'Saudi Arabia Workbook'!G16</f>
         <v>4</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="78">
         <f>'Saudi Arabia Workbook'!H16</f>
         <v>1.0556378736326053</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="78">
         <f>'Saudi Arabia Workbook'!I16</f>
-        <v>1.1257132833942096</v>
-      </c>
-      <c r="E6" s="79">
+        <v>1.2187947499211678</v>
+      </c>
+      <c r="E6" s="78">
         <f>'Saudi Arabia Workbook'!J16</f>
-        <v>1.2187947499211678</v>
-      </c>
-      <c r="F6" s="79">
+        <v>1.1257132484303041</v>
+      </c>
+      <c r="F6" s="78">
         <f>'Saudi Arabia Workbook'!K16</f>
-        <v>1.1169030783326042</v>
-      </c>
-      <c r="G6" s="79">
+        <v>1.1166623512315266</v>
+      </c>
+      <c r="G6" s="78">
         <f>'Saudi Arabia Workbook'!L16</f>
-        <v>1.1159779600647721</v>
-      </c>
-      <c r="H6" s="81" t="s">
+        <v>1.1159446508252393</v>
+      </c>
+      <c r="H6" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="19">
         <f>'Saudi Arabia Workbook'!A17</f>
         <v>1996</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="77">
         <f>'Saudi Arabia Workbook'!G17</f>
         <v>5</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="78">
         <f>'Saudi Arabia Workbook'!H17</f>
         <v>1.091359345845681</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="78">
         <f>'Saudi Arabia Workbook'!I17</f>
-        <v>1.1207759136589694</v>
-      </c>
-      <c r="E7" s="79">
+        <v>1.2542562147244056</v>
+      </c>
+      <c r="E7" s="78">
         <f>'Saudi Arabia Workbook'!J17</f>
-        <v>1.2542562147244056</v>
-      </c>
-      <c r="F7" s="79">
+        <v>1.1207757418060087</v>
+      </c>
+      <c r="F7" s="78">
         <f>'Saudi Arabia Workbook'!K17</f>
-        <v>1.1947531939936704</v>
-      </c>
-      <c r="G7" s="79">
+        <v>1.1949625842195228</v>
+      </c>
+      <c r="G7" s="78">
         <f>'Saudi Arabia Workbook'!L17</f>
-        <v>1.1939699375465991</v>
-      </c>
-      <c r="H7" s="81" t="s">
+        <v>1.1939977426931474</v>
+      </c>
+      <c r="H7" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="19">
         <f>'Saudi Arabia Workbook'!A18</f>
         <v>1997</v>
       </c>
-      <c r="B8" s="78">
+      <c r="B8" s="77">
         <f>'Saudi Arabia Workbook'!G18</f>
         <v>6</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="78">
         <f>'Saudi Arabia Workbook'!H18</f>
         <v>1.1196538982182709</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="78">
         <f>'Saudi Arabia Workbook'!I18</f>
-        <v>1.088430013000681</v>
-      </c>
-      <c r="E8" s="79">
+        <v>1.2887861579363036</v>
+      </c>
+      <c r="E8" s="78">
         <f>'Saudi Arabia Workbook'!J18</f>
-        <v>1.2887861579363036</v>
-      </c>
-      <c r="F8" s="79">
+        <v>1.0884299645035702</v>
+      </c>
+      <c r="F8" s="78">
         <f>'Saudi Arabia Workbook'!K18</f>
-        <v>1.2647525704673135</v>
-      </c>
-      <c r="G8" s="79">
+        <v>1.265522909688287</v>
+      </c>
+      <c r="G8" s="78">
         <f>'Saudi Arabia Workbook'!L18</f>
-        <v>1.2639120090307985</v>
-      </c>
-      <c r="H8" s="81" t="s">
+        <v>1.264015804467999</v>
+      </c>
+      <c r="H8" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="19">
         <f>'Saudi Arabia Workbook'!A19</f>
         <v>1998</v>
       </c>
-      <c r="B9" s="78">
+      <c r="B9" s="77">
         <f>'Saudi Arabia Workbook'!G19</f>
         <v>7</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="78">
         <f>'Saudi Arabia Workbook'!H19</f>
         <v>1.1513920901474408</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="78">
         <f>'Saudi Arabia Workbook'!I19</f>
-        <v>1.0967694339544769</v>
-      </c>
-      <c r="E9" s="79">
+        <v>1.3288676226816829</v>
+      </c>
+      <c r="E9" s="78">
         <f>'Saudi Arabia Workbook'!J19</f>
-        <v>1.3288676226816829</v>
-      </c>
-      <c r="F9" s="79">
+        <v>1.0967693701882939</v>
+      </c>
+      <c r="F9" s="78">
         <f>'Saudi Arabia Workbook'!K19</f>
-        <v>1.3121304551395852</v>
-      </c>
-      <c r="G9" s="79">
+        <v>1.3130381249218592</v>
+      </c>
+      <c r="G9" s="78">
         <f>'Saudi Arabia Workbook'!L19</f>
-        <v>1.3114216596411876</v>
-      </c>
-      <c r="H9" s="81" t="s">
+        <v>1.311544166131015</v>
+      </c>
+      <c r="H9" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="19">
         <f>'Saudi Arabia Workbook'!A20</f>
         <v>1999</v>
       </c>
-      <c r="B10" s="78">
+      <c r="B10" s="77">
         <f>'Saudi Arabia Workbook'!G20</f>
         <v>8</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="78">
         <f>'Saudi Arabia Workbook'!H20</f>
         <v>1.1427761314162368</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="78">
         <f>'Saudi Arabia Workbook'!I20</f>
-        <v>1.1337101467219712</v>
-      </c>
-      <c r="E10" s="79">
+        <v>1.3774051048540374</v>
+      </c>
+      <c r="E10" s="78">
         <f>'Saudi Arabia Workbook'!J20</f>
-        <v>1.3774051048540374</v>
-      </c>
-      <c r="F10" s="79">
+        <v>1.1337100118061223</v>
+      </c>
+      <c r="F10" s="78">
         <f>'Saudi Arabia Workbook'!K20</f>
-        <v>1.3293796524728627</v>
-      </c>
-      <c r="G10" s="79">
+        <v>1.3301716683831304</v>
+      </c>
+      <c r="G10" s="78">
         <f>'Saudi Arabia Workbook'!L20</f>
-        <v>1.3289358554195088</v>
-      </c>
-      <c r="H10" s="81" t="s">
+        <v>1.3290428808142796</v>
+      </c>
+      <c r="H10" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="19">
         <f>'Saudi Arabia Workbook'!A21</f>
         <v>2000</v>
       </c>
-      <c r="B11" s="78">
+      <c r="B11" s="77">
         <f>'Saudi Arabia Workbook'!G21</f>
         <v>9</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="78">
         <f>'Saudi Arabia Workbook'!H21</f>
         <v>1.1983682727838145</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="78">
         <f>'Saudi Arabia Workbook'!I21</f>
-        <v>1.1607140056542644</v>
-      </c>
-      <c r="E11" s="79">
+        <v>1.4293099507913594</v>
+      </c>
+      <c r="E11" s="78">
         <f>'Saudi Arabia Workbook'!J21</f>
-        <v>1.4293099507913594</v>
-      </c>
-      <c r="F11" s="79">
+        <v>1.1607140030438332</v>
+      </c>
+      <c r="F11" s="78">
         <f>'Saudi Arabia Workbook'!K21</f>
-        <v>1.399368376876027</v>
-      </c>
-      <c r="G11" s="79">
+        <v>1.400309878998776</v>
+      </c>
+      <c r="G11" s="78">
         <f>'Saudi Arabia Workbook'!L21</f>
-        <v>1.3986292665673528</v>
-      </c>
-      <c r="H11" s="81" t="s">
+        <v>1.3987563364795679</v>
+      </c>
+      <c r="H11" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="19">
         <f>'Saudi Arabia Workbook'!A22</f>
         <v>2001</v>
       </c>
-      <c r="B12" s="78">
+      <c r="B12" s="77">
         <f>'Saudi Arabia Workbook'!G22</f>
         <v>10</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="78">
         <f>'Saudi Arabia Workbook'!H22</f>
         <v>1.2049262795887754</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="78">
         <f>'Saudi Arabia Workbook'!I22</f>
-        <v>1.2171908211065023</v>
-      </c>
-      <c r="E12" s="79">
+        <v>1.4799043020675728</v>
+      </c>
+      <c r="E12" s="78">
         <f>'Saudi Arabia Workbook'!J22</f>
-        <v>1.4799043020675728</v>
-      </c>
-      <c r="F12" s="79">
+        <v>1.2171908200031087</v>
+      </c>
+      <c r="F12" s="78">
         <f>'Saudi Arabia Workbook'!K22</f>
-        <v>1.4787357654746731</v>
-      </c>
-      <c r="G12" s="79">
+        <v>1.4797842836205422</v>
+      </c>
+      <c r="G12" s="78">
         <f>'Saudi Arabia Workbook'!L22</f>
-        <v>1.4776734020267848</v>
-      </c>
-      <c r="H12" s="81" t="s">
+        <v>1.4778147393883445</v>
+      </c>
+      <c r="H12" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="19">
         <f>'Saudi Arabia Workbook'!A23</f>
         <v>2002</v>
       </c>
-      <c r="B13" s="78">
+      <c r="B13" s="77">
         <f>'Saudi Arabia Workbook'!G23</f>
         <v>11</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="78">
         <f>'Saudi Arabia Workbook'!H23</f>
         <v>1.2064674569202063</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="78">
         <f>'Saudi Arabia Workbook'!I23</f>
-        <v>1.2835588848304753</v>
-      </c>
-      <c r="E13" s="79">
+        <v>1.5290116903066788</v>
+      </c>
+      <c r="E13" s="78">
         <f>'Saudi Arabia Workbook'!J23</f>
-        <v>1.5290116903066788</v>
-      </c>
-      <c r="F13" s="79">
+        <v>1.283558835066958</v>
+      </c>
+      <c r="F13" s="78">
         <f>'Saudi Arabia Workbook'!K23</f>
-        <v>1.5499113181282804</v>
-      </c>
-      <c r="G13" s="79">
+        <v>1.5509657059675972</v>
+      </c>
+      <c r="G13" s="78">
         <f>'Saudi Arabia Workbook'!L23</f>
-        <v>1.5486266937620641</v>
-      </c>
-      <c r="H13" s="81" t="s">
+        <v>1.5487686632302125</v>
+      </c>
+      <c r="H13" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="19">
         <f>'Saudi Arabia Workbook'!A24</f>
         <v>2003</v>
       </c>
-      <c r="B14" s="78">
+      <c r="B14" s="77">
         <f>'Saudi Arabia Workbook'!G24</f>
         <v>12</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="78">
         <f>'Saudi Arabia Workbook'!H24</f>
         <v>1.29887407163502</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="78">
         <f>'Saudi Arabia Workbook'!I24</f>
-        <v>1.4080253410099259</v>
-      </c>
-      <c r="E14" s="79">
+        <v>1.5999866925486952</v>
+      </c>
+      <c r="E14" s="78">
         <f>'Saudi Arabia Workbook'!J24</f>
-        <v>1.5999866925486952</v>
-      </c>
-      <c r="F14" s="79">
+        <v>1.4080252965623752</v>
+      </c>
+      <c r="F14" s="78">
         <f>'Saudi Arabia Workbook'!K24</f>
-        <v>1.6415961886040289</v>
-      </c>
-      <c r="G14" s="79">
+        <v>1.642287298330382</v>
+      </c>
+      <c r="G14" s="78">
         <f>'Saudi Arabia Workbook'!L24</f>
-        <v>1.6398622548346342</v>
-      </c>
-      <c r="H14" s="81" t="s">
+        <v>1.6399546541763821</v>
+      </c>
+      <c r="H14" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="19">
         <f>'Saudi Arabia Workbook'!A25</f>
         <v>2004</v>
       </c>
-      <c r="B15" s="78">
+      <c r="B15" s="77">
         <f>'Saudi Arabia Workbook'!G25</f>
         <v>13</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="78">
         <f>'Saudi Arabia Workbook'!H25</f>
         <v>1.3672849668898401</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="78">
         <f>'Saudi Arabia Workbook'!I25</f>
-        <v>1.517596524897336</v>
-      </c>
-      <c r="E15" s="79">
+        <v>1.6704930410708447</v>
+      </c>
+      <c r="E15" s="78">
         <f>'Saudi Arabia Workbook'!J25</f>
-        <v>1.6704930410708447</v>
-      </c>
-      <c r="F15" s="79">
+        <v>1.5175964808297548</v>
+      </c>
+      <c r="F15" s="78">
         <f>'Saudi Arabia Workbook'!K25</f>
-        <v>1.7623114831361626</v>
-      </c>
-      <c r="G15" s="79">
+        <v>1.7630182123296265</v>
+      </c>
+      <c r="G15" s="78">
         <f>'Saudi Arabia Workbook'!L25</f>
-        <v>1.7600447476521726</v>
-      </c>
-      <c r="H15" s="81" t="s">
+        <v>1.7601388721877216</v>
+      </c>
+      <c r="H15" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="19">
         <f>'Saudi Arabia Workbook'!A26</f>
         <v>2005</v>
       </c>
-      <c r="B16" s="78">
+      <c r="B16" s="77">
         <f>'Saudi Arabia Workbook'!G26</f>
         <v>14</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="78">
         <f>'Saudi Arabia Workbook'!H26</f>
         <v>1.4432188197417042</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="78">
         <f>'Saudi Arabia Workbook'!I26</f>
-        <v>1.5716845168080233</v>
-      </c>
-      <c r="E16" s="79">
+        <v>1.769911274014887</v>
+      </c>
+      <c r="E16" s="78">
         <f>'Saudi Arabia Workbook'!J26</f>
-        <v>1.769911274014887</v>
-      </c>
-      <c r="F16" s="79">
+        <v>1.5716842956517962</v>
+      </c>
+      <c r="F16" s="78">
         <f>'Saudi Arabia Workbook'!K26</f>
-        <v>1.8459460912862351</v>
-      </c>
-      <c r="G16" s="79">
+        <v>1.8467910217842849</v>
+      </c>
+      <c r="G16" s="78">
         <f>'Saudi Arabia Workbook'!L26</f>
-        <v>1.843474944941492</v>
-      </c>
-      <c r="H16" s="81" t="s">
+        <v>1.843587651273858</v>
+      </c>
+      <c r="H16" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="19">
         <f>'Saudi Arabia Workbook'!A27</f>
         <v>2006</v>
       </c>
-      <c r="B17" s="78">
+      <c r="B17" s="77">
         <f>'Saudi Arabia Workbook'!G27</f>
         <v>15</v>
       </c>
-      <c r="C17" s="79">
+      <c r="C17" s="78">
         <f>'Saudi Arabia Workbook'!H27</f>
         <v>1.4887910218417297</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="78">
         <f>'Saudi Arabia Workbook'!I27</f>
-        <v>1.6458240987226316</v>
-      </c>
-      <c r="E17" s="79">
+        <v>1.8990427313833096</v>
+      </c>
+      <c r="E17" s="78">
         <f>'Saudi Arabia Workbook'!J27</f>
-        <v>1.8990427313833096</v>
-      </c>
-      <c r="F17" s="79">
+        <v>1.6458238857237517</v>
+      </c>
+      <c r="F17" s="78">
         <f>'Saudi Arabia Workbook'!K27</f>
-        <v>1.9009825733775598</v>
-      </c>
-      <c r="G17" s="79">
+        <v>1.9015211202007152</v>
+      </c>
+      <c r="G17" s="78">
         <f>'Saudi Arabia Workbook'!L27</f>
-        <v>1.8981193273242325</v>
-      </c>
-      <c r="H17" s="81" t="s">
+        <v>1.8981902172270901</v>
+      </c>
+      <c r="H17" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="19">
         <f>'Saudi Arabia Workbook'!A28</f>
         <v>2007</v>
       </c>
-      <c r="B18" s="78">
+      <c r="B18" s="77">
         <f>'Saudi Arabia Workbook'!G28</f>
         <v>16</v>
       </c>
-      <c r="C18" s="79">
+      <c r="C18" s="78">
         <f>'Saudi Arabia Workbook'!H28</f>
         <v>1.5188234002853693</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="78">
         <f>'Saudi Arabia Workbook'!I28</f>
-        <v>1.7178569512371282</v>
-      </c>
-      <c r="E18" s="79">
+        <v>2.065484232116666</v>
+      </c>
+      <c r="E18" s="78">
         <f>'Saudi Arabia Workbook'!J28</f>
-        <v>2.065484232116666</v>
-      </c>
-      <c r="F18" s="79">
+        <v>1.717856820856833</v>
+      </c>
+      <c r="F18" s="78">
         <f>'Saudi Arabia Workbook'!K28</f>
-        <v>1.9832235232646658</v>
-      </c>
-      <c r="G18" s="79">
+        <v>1.9837804334929643</v>
+      </c>
+      <c r="G18" s="78">
         <f>'Saudi Arabia Workbook'!L28</f>
-        <v>1.9809056896961263</v>
-      </c>
-      <c r="H18" s="81" t="s">
+        <v>1.9809794698054117</v>
+      </c>
+      <c r="H18" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="19">
         <f>'Saudi Arabia Workbook'!A29</f>
         <v>2008</v>
       </c>
-      <c r="B19" s="78">
+      <c r="B19" s="77">
         <f>'Saudi Arabia Workbook'!G29</f>
         <v>17</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="78">
         <f>'Saudi Arabia Workbook'!H29</f>
         <v>1.5830497932901622</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="78">
         <f>'Saudi Arabia Workbook'!I29</f>
-        <v>1.7883965826781403</v>
-      </c>
-      <c r="E19" s="79">
+        <v>2.2829800590735121</v>
+      </c>
+      <c r="E19" s="78">
         <f>'Saudi Arabia Workbook'!J29</f>
-        <v>2.2829800590735121</v>
-      </c>
-      <c r="F19" s="79">
+        <v>1.7883964032978603</v>
+      </c>
+      <c r="F19" s="78">
         <f>'Saudi Arabia Workbook'!K29</f>
-        <v>1.9463564003313114</v>
-      </c>
-      <c r="G19" s="79">
+        <v>1.9462941711455051</v>
+      </c>
+      <c r="G19" s="78">
         <f>'Saudi Arabia Workbook'!L29</f>
-        <v>1.9413033280148106</v>
-      </c>
-      <c r="H19" s="81" t="s">
+        <v>1.9412911764709122</v>
+      </c>
+      <c r="H19" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="19">
         <f>'Saudi Arabia Workbook'!A30</f>
         <v>2009</v>
       </c>
-      <c r="B20" s="78">
+      <c r="B20" s="77">
         <f>'Saudi Arabia Workbook'!G30</f>
         <v>18</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="78">
         <f>'Saudi Arabia Workbook'!H30</f>
         <v>1.585551348187173</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="78">
         <f>'Saudi Arabia Workbook'!I30</f>
-        <v>1.794133803834169</v>
-      </c>
-      <c r="E20" s="79">
+        <v>2.4182647662083312</v>
+      </c>
+      <c r="E20" s="78">
         <f>'Saudi Arabia Workbook'!J30</f>
-        <v>2.4182647662083312</v>
-      </c>
-      <c r="F20" s="79">
+        <v>1.7941336063839641</v>
+      </c>
+      <c r="F20" s="78">
         <f>'Saudi Arabia Workbook'!K30</f>
-        <v>2.0520602315062484</v>
-      </c>
-      <c r="G20" s="79">
+        <v>2.0525375507856669</v>
+      </c>
+      <c r="G20" s="78">
         <f>'Saudi Arabia Workbook'!L30</f>
-        <v>2.0491373775982962</v>
-      </c>
-      <c r="H20" s="81" t="s">
+        <v>2.0491999247201949</v>
+      </c>
+      <c r="H20" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="19">
         <f>'Saudi Arabia Workbook'!A31</f>
         <v>2010</v>
       </c>
-      <c r="B21" s="78">
+      <c r="B21" s="77">
         <f>'Saudi Arabia Workbook'!G31</f>
         <v>19</v>
       </c>
-      <c r="C21" s="79">
+      <c r="C21" s="78">
         <f>'Saudi Arabia Workbook'!H31</f>
         <v>1.659024805180551</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="78">
         <f>'Saudi Arabia Workbook'!I31</f>
-        <v>1.8635176128273385</v>
-      </c>
-      <c r="E21" s="79">
+        <v>2.5547037500976364</v>
+      </c>
+      <c r="E21" s="78">
         <f>'Saudi Arabia Workbook'!J31</f>
-        <v>2.5547037500976364</v>
-      </c>
-      <c r="F21" s="79">
+        <v>1.8635175216746698</v>
+      </c>
+      <c r="F21" s="78">
         <f>'Saudi Arabia Workbook'!K31</f>
-        <v>2.245050395247989</v>
-      </c>
-      <c r="G21" s="79">
+        <v>2.2461628284231305</v>
+      </c>
+      <c r="G21" s="78">
         <f>'Saudi Arabia Workbook'!L31</f>
-        <v>2.2418123840630342</v>
-      </c>
-      <c r="H21" s="81" t="s">
+        <v>2.2419607843072238</v>
+      </c>
+      <c r="H21" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="19">
         <f>'Saudi Arabia Workbook'!A32</f>
         <v>2011</v>
       </c>
-      <c r="B22" s="78">
+      <c r="B22" s="77">
         <f>'Saudi Arabia Workbook'!G32</f>
         <v>20</v>
       </c>
-      <c r="C22" s="79">
+      <c r="C22" s="78">
         <f>'Saudi Arabia Workbook'!H32</f>
         <v>1.7712426371053305</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="78">
         <f>'Saudi Arabia Workbook'!I32</f>
-        <v>1.9471582162240244</v>
-      </c>
-      <c r="E22" s="79">
+        <v>2.6944319887985975</v>
+      </c>
+      <c r="E22" s="78">
         <f>'Saudi Arabia Workbook'!J32</f>
-        <v>2.6944319887985975</v>
-      </c>
-      <c r="F22" s="79">
+        <v>1.9065922194592113</v>
+      </c>
+      <c r="F22" s="78">
         <f>'Saudi Arabia Workbook'!K32</f>
-        <v>2.7158058026242671</v>
-      </c>
-      <c r="G22" s="79">
+        <v>2.7192170244508747</v>
+      </c>
+      <c r="G22" s="78">
         <f>'Saudi Arabia Workbook'!L32</f>
-        <v>2.7157594879322264</v>
-      </c>
-      <c r="H22" s="81" t="s">
+        <v>2.716221819477203</v>
+      </c>
+      <c r="H22" s="80" t="s">
         <v>109</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>107</v>
+      </c>
+      <c r="J22" s="73" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -6926,27 +7063,27 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="17" customFormat="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="17" customFormat="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="17" customFormat="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="73" t="s">
         <v>98</v>
       </c>
     </row>
@@ -7007,19 +7144,19 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="7"/>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="100" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7027,9 +7164,9 @@
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="102"/>
       <c r="F6" s="102"/>
     </row>
@@ -7520,50 +7657,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO81"/>
   <sheetViews>
-    <sheetView topLeftCell="AE22" workbookViewId="0">
-      <selection activeCell="AO31" sqref="AO31:AO51"/>
+    <sheetView tabSelected="1" topLeftCell="AD22" workbookViewId="0">
+      <selection activeCell="AI59" sqref="AI59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="17" customWidth="1"/>
     <col min="6" max="6" width="27" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="30.85546875" style="74" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" style="17" customWidth="1"/>
-    <col min="15" max="15" width="28.42578125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="24.140625" style="17" customWidth="1"/>
-    <col min="17" max="18" width="24.140625" style="74" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="42.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="30.83203125" style="73" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="28.5" style="17" customWidth="1"/>
+    <col min="16" max="16" width="24.1640625" style="17" customWidth="1"/>
+    <col min="17" max="18" width="24.1640625" style="73" customWidth="1"/>
+    <col min="19" max="19" width="17.5" style="17" customWidth="1"/>
     <col min="20" max="20" width="15" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="16.42578125" style="74" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" style="17" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="17" customWidth="1"/>
-    <col min="30" max="30" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.7109375" style="17" customWidth="1"/>
+    <col min="21" max="21" width="20.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="16.5" style="73" customWidth="1"/>
+    <col min="28" max="28" width="16.6640625" style="17" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" style="17" customWidth="1"/>
+    <col min="30" max="30" width="15.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.6640625" style="17" customWidth="1"/>
     <col min="32" max="32" width="19" style="17" customWidth="1"/>
-    <col min="33" max="33" width="18.7109375" style="17" customWidth="1"/>
-    <col min="34" max="34" width="19.42578125" style="17" customWidth="1"/>
+    <col min="33" max="33" width="18.6640625" style="17" customWidth="1"/>
+    <col min="34" max="34" width="19.5" style="17" customWidth="1"/>
     <col min="35" max="35" width="18" style="17" customWidth="1"/>
-    <col min="36" max="36" width="16.7109375" style="17" customWidth="1"/>
-    <col min="37" max="38" width="16.7109375" style="74" customWidth="1"/>
-    <col min="39" max="39" width="23.140625" style="17" customWidth="1"/>
-    <col min="40" max="40" width="21.7109375" style="17" customWidth="1"/>
-    <col min="41" max="41" width="14.7109375" style="17" customWidth="1"/>
-    <col min="42" max="16384" width="8.85546875" style="17"/>
+    <col min="36" max="36" width="16.6640625" style="17" customWidth="1"/>
+    <col min="37" max="38" width="16.6640625" style="73" customWidth="1"/>
+    <col min="39" max="39" width="23.1640625" style="17" customWidth="1"/>
+    <col min="40" max="40" width="21.6640625" style="17" customWidth="1"/>
+    <col min="41" max="41" width="14.6640625" style="17" customWidth="1"/>
+    <col min="42" max="16384" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7629,7 +7766,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="30"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="15" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -7640,11 +7777,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18">
+    <row r="15" spans="1:7" ht="16">
       <c r="A15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="89">
         <v>1.0880000000000001</v>
       </c>
       <c r="C15" s="32">
@@ -7653,17 +7790,17 @@
       <c r="D15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="91" t="s">
+      <c r="E15" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="66">
         <v>19110</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
@@ -7676,10 +7813,10 @@
       <c r="D16" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="89" t="s">
+      <c r="E16" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="63">
         <v>7215</v>
       </c>
       <c r="G16" s="35" t="s">
@@ -7699,10 +7836,10 @@
       <c r="D17" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="89" t="s">
+      <c r="E17" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="63">
         <f>4.184/1000000000</f>
         <v>4.1840000000000004E-9</v>
       </c>
@@ -7710,7 +7847,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="18">
+    <row r="18" spans="1:41" ht="16">
       <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
@@ -7723,16 +7860,16 @@
       <c r="D18" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="89" t="s">
+      <c r="E18" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="63">
         <v>0.4</v>
       </c>
       <c r="G18" s="35"/>
     </row>
-    <row r="19" spans="1:41" ht="18.75">
-      <c r="A19" s="89" t="s">
+    <row r="19" spans="1:41" ht="17">
+      <c r="A19" s="88" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="24">
@@ -7744,16 +7881,16 @@
       <c r="D19" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="63">
         <v>0.2</v>
       </c>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="1:41" ht="18.75">
-      <c r="A20" s="83" t="s">
+    <row r="20" spans="1:41" ht="17">
+      <c r="A20" s="82" t="s">
         <v>110</v>
       </c>
       <c r="B20" s="38">
@@ -7765,19 +7902,19 @@
       <c r="D20" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="89" t="s">
+      <c r="E20" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="63">
         <v>12.5</v>
       </c>
       <c r="G20" s="35"/>
     </row>
-    <row r="21" spans="1:41" ht="18.75" thickBot="1">
-      <c r="A21" s="84" t="s">
+    <row r="21" spans="1:41" ht="17" thickBot="1">
+      <c r="A21" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="85">
+      <c r="B21" s="84">
         <v>1.07</v>
       </c>
       <c r="C21" s="37">
@@ -7787,15 +7924,15 @@
       <c r="D21" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="89" t="s">
+      <c r="E21" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="64">
+      <c r="F21" s="63">
         <v>9</v>
       </c>
       <c r="G21" s="35"/>
     </row>
-    <row r="22" spans="1:41" ht="15.75" thickBot="1">
+    <row r="22" spans="1:41" ht="15" thickBot="1">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="34">
@@ -7805,39 +7942,39 @@
       <c r="D22" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="92" t="s">
+      <c r="E22" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="64">
         <f>F21/F20</f>
         <v>0.72</v>
       </c>
-      <c r="G22" s="66"/>
-    </row>
-    <row r="23" spans="1:41" ht="17.25">
+      <c r="G22" s="65"/>
+    </row>
+    <row r="23" spans="1:41" ht="16">
       <c r="A23" s="40"/>
       <c r="C23" s="39">
         <v>300</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="85" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:41" s="74" customFormat="1" ht="17.25">
+    <row r="24" spans="1:41" s="73" customFormat="1" ht="16">
       <c r="A24" s="40"/>
       <c r="C24" s="39">
         <v>785.22</v>
       </c>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="85" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:41" s="74" customFormat="1" ht="18" thickBot="1">
+    <row r="25" spans="1:41" s="73" customFormat="1" ht="17" thickBot="1">
       <c r="A25" s="40"/>
-      <c r="C25" s="87">
+      <c r="C25" s="86">
         <v>880</v>
       </c>
-      <c r="D25" s="88" t="s">
+      <c r="D25" s="87" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7849,7 +7986,7 @@
       <c r="A27" s="40"/>
       <c r="C27" s="41"/>
     </row>
-    <row r="28" spans="1:41" ht="15.75" thickBot="1">
+    <row r="28" spans="1:41" ht="15" thickBot="1">
       <c r="E28" s="19" t="s">
         <v>52</v>
       </c>
@@ -7858,6 +7995,9 @@
       </c>
       <c r="X28" s="17" t="s">
         <v>10</v>
+      </c>
+      <c r="AD28" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="AI28" s="17" t="s">
         <v>82</v>
@@ -8056,13 +8196,13 @@
       <c r="H31" s="17">
         <v>3000</v>
       </c>
-      <c r="I31" s="96">
-        <v>0</v>
-      </c>
-      <c r="J31" s="96">
-        <v>0</v>
-      </c>
-      <c r="K31" s="96">
+      <c r="I31" s="95">
+        <v>0</v>
+      </c>
+      <c r="J31" s="95">
+        <v>0</v>
+      </c>
+      <c r="K31" s="95">
         <v>0</v>
       </c>
       <c r="L31" s="46">
@@ -8128,31 +8268,31 @@
         <v>3037.1509373371041</v>
       </c>
       <c r="AD31" s="51">
-        <f t="shared" ref="AD31:AD51" si="8">SUM(T31:AC31)</f>
-        <v>4132063.6039993963</v>
+        <f>SUM(T31:AB31)</f>
+        <v>4129026.4530620594</v>
       </c>
       <c r="AE31" s="52">
-        <f t="shared" ref="AE31:AE51" si="9">B31*1000*N31*1000*$C$21*$C$17</f>
+        <f t="shared" ref="AE31:AE51" si="8">B31*1000*N31*1000*$C$21*$C$17</f>
         <v>0</v>
       </c>
       <c r="AF31" s="48">
-        <f t="shared" ref="AF31:AF51" si="10">C31*1000*365*O31*1000*$C$21*$C$17</f>
+        <f t="shared" ref="AF31:AF51" si="9">C31*1000*365*O31*1000*$C$21*$C$17</f>
         <v>2637622.8532539601</v>
       </c>
       <c r="AG31" s="48">
-        <f t="shared" ref="AG31:AG51" si="11">D31*1000000000*P31*$C$21*$C$17</f>
+        <f t="shared" ref="AG31:AG51" si="10">D31*1000000000*P31*$C$21*$C$17</f>
         <v>1248247.1266935</v>
       </c>
       <c r="AH31" s="48">
-        <f t="shared" ref="AH31:AH51" si="12">E31*1000000000000000*$C$21*$C$17</f>
+        <f t="shared" ref="AH31:AH51" si="11">E31*1000000000000000*$C$21*$C$17</f>
         <v>0</v>
       </c>
       <c r="AI31" s="48">
-        <f t="shared" ref="AI31:AI51" si="13">F31*1000000000000000*$C$21*$C$17</f>
+        <f t="shared" ref="AI31:AI51" si="12">F31*1000000000000000*$C$21*$C$17</f>
         <v>0</v>
       </c>
       <c r="AJ31" s="48">
-        <f t="shared" ref="AJ31:AJ51" si="14">G31*$C$23*S31*(1/1000)*$C$17</f>
+        <f t="shared" ref="AJ31:AJ51" si="13">G31*$C$23*S31*(1/1000)*$C$17</f>
         <v>560.95558799999992</v>
       </c>
       <c r="AK31" s="48">
@@ -8164,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="AM31" s="48">
-        <f t="shared" ref="AM31:AM51" si="15">((H31*$F$15*365*$F$17)+(I31*$F$16*365*$F$17))</f>
+        <f t="shared" ref="AM31:AM51" si="14">((H31*$F$15*365*$F$17)+(I31*$F$16*365*$F$17))</f>
         <v>87.552082800000008</v>
       </c>
       <c r="AN31" s="48">
-        <f t="shared" ref="AN31:AN51" si="16">L31*$F$17*365*M31</f>
+        <f t="shared" ref="AN31:AN51" si="15">L31*$F$17*365*M31</f>
         <v>21091.325953729891</v>
       </c>
       <c r="AO31" s="51">
-        <f>SUM(AE31:AN31)</f>
-        <v>3907609.8135719895</v>
+        <f>SUM(AE31:AM31)</f>
+        <v>3886518.4876182596</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -8201,13 +8341,13 @@
       <c r="H32" s="17">
         <v>3000</v>
       </c>
-      <c r="I32" s="96">
-        <v>0</v>
-      </c>
-      <c r="J32" s="96">
-        <v>0</v>
-      </c>
-      <c r="K32" s="96">
+      <c r="I32" s="95">
+        <v>0</v>
+      </c>
+      <c r="J32" s="95">
+        <v>0</v>
+      </c>
+      <c r="K32" s="95">
         <v>0</v>
       </c>
       <c r="L32" s="46">
@@ -8257,11 +8397,11 @@
         <v>676.21407599999998</v>
       </c>
       <c r="Z32" s="48">
-        <f t="shared" ref="Z32:Z51" si="17">AK32*$B$20</f>
+        <f t="shared" ref="Z32:Z51" si="16">AK32*$B$20</f>
         <v>0</v>
       </c>
       <c r="AA32" s="48">
-        <f t="shared" ref="AA32:AA51" si="18">AL32*$B$21</f>
+        <f t="shared" ref="AA32:AA51" si="17">AL32*$B$21</f>
         <v>0</v>
       </c>
       <c r="AB32" s="48">
@@ -8273,31 +8413,31 @@
         <v>3186.710186406382</v>
       </c>
       <c r="AD32" s="51">
+        <f t="shared" ref="AD32:AD51" si="18">SUM(T32:AB32)</f>
+        <v>4357275.1384821674</v>
+      </c>
+      <c r="AE32" s="52">
         <f t="shared" si="8"/>
-        <v>4360461.8486685734</v>
-      </c>
-      <c r="AE32" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="48">
+        <v>2774606.8761356431</v>
+      </c>
+      <c r="AG32" s="48">
         <f t="shared" si="10"/>
-        <v>2774606.8761356431</v>
-      </c>
-      <c r="AG32" s="48">
+        <v>1326356.4668072143</v>
+      </c>
+      <c r="AH32" s="48">
         <f t="shared" si="11"/>
-        <v>1326356.4668072143</v>
-      </c>
-      <c r="AH32" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI32" s="48">
+      <c r="AJ32" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="48">
-        <f t="shared" si="14"/>
         <v>588.01224000000002</v>
       </c>
       <c r="AK32" s="48">
@@ -8309,16 +8449,16 @@
         <v>0</v>
       </c>
       <c r="AM32" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN32" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN32" s="48">
-        <f t="shared" si="16"/>
         <v>22129.931850044319</v>
       </c>
       <c r="AO32" s="51">
-        <f t="shared" ref="AO32:AO51" si="21">SUM(AE32:AN32)</f>
-        <v>4123768.8391157016</v>
+        <f t="shared" ref="AO32:AO51" si="21">SUM(AE32:AM32)</f>
+        <v>4101638.9072656571</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -8346,13 +8486,13 @@
       <c r="H33" s="17">
         <v>3000</v>
       </c>
-      <c r="I33" s="96">
-        <v>0</v>
-      </c>
-      <c r="J33" s="96">
-        <v>0</v>
-      </c>
-      <c r="K33" s="96">
+      <c r="I33" s="95">
+        <v>0</v>
+      </c>
+      <c r="J33" s="95">
+        <v>0</v>
+      </c>
+      <c r="K33" s="95">
         <v>0</v>
       </c>
       <c r="L33" s="46">
@@ -8402,11 +8542,11 @@
         <v>705.75417659999982</v>
       </c>
       <c r="Z33" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB33" s="48">
@@ -8418,31 +8558,31 @@
         <v>3329.4243602388633</v>
       </c>
       <c r="AD33" s="51">
+        <f t="shared" si="18"/>
+        <v>4534729.6079352479</v>
+      </c>
+      <c r="AE33" s="52">
         <f t="shared" si="8"/>
-        <v>4538059.0322954869</v>
-      </c>
-      <c r="AE33" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="48">
+        <v>2868120.5875432766</v>
+      </c>
+      <c r="AG33" s="48">
         <f t="shared" si="10"/>
-        <v>2868120.5875432766</v>
-      </c>
-      <c r="AG33" s="48">
+        <v>1400476.3870111469</v>
+      </c>
+      <c r="AH33" s="48">
         <f t="shared" si="11"/>
-        <v>1400476.3870111469</v>
-      </c>
-      <c r="AH33" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI33" s="48">
+      <c r="AJ33" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="48">
-        <f t="shared" si="14"/>
         <v>613.69928399999992</v>
       </c>
       <c r="AK33" s="48">
@@ -8454,16 +8594,16 @@
         <v>0</v>
       </c>
       <c r="AM33" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN33" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN33" s="48">
-        <f t="shared" si="16"/>
         <v>23121.002501658772</v>
       </c>
       <c r="AO33" s="51">
         <f t="shared" si="21"/>
-        <v>4292419.228422883</v>
+        <v>4269298.2259212239</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -8491,13 +8631,13 @@
       <c r="H34" s="17">
         <v>3000</v>
       </c>
-      <c r="I34" s="96">
-        <v>0</v>
-      </c>
-      <c r="J34" s="96">
-        <v>0</v>
-      </c>
-      <c r="K34" s="96">
+      <c r="I34" s="95">
+        <v>0</v>
+      </c>
+      <c r="J34" s="95">
+        <v>0</v>
+      </c>
+      <c r="K34" s="95">
         <v>0</v>
       </c>
       <c r="L34" s="46">
@@ -8547,11 +8687,11 @@
         <v>729.15264239999988</v>
       </c>
       <c r="Z34" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB34" s="48">
@@ -8563,31 +8703,31 @@
         <v>3411.9549035082318</v>
       </c>
       <c r="AD34" s="51">
+        <f t="shared" si="18"/>
+        <v>4671420.4746732665</v>
+      </c>
+      <c r="AE34" s="52">
         <f t="shared" si="8"/>
-        <v>4674832.4295767751</v>
-      </c>
-      <c r="AE34" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="48">
+        <v>2927436.6734611355</v>
+      </c>
+      <c r="AG34" s="48">
         <f t="shared" si="10"/>
-        <v>2927436.6734611355</v>
-      </c>
-      <c r="AG34" s="48">
+        <v>1470689.1832441813</v>
+      </c>
+      <c r="AH34" s="48">
         <f t="shared" si="11"/>
-        <v>1470689.1832441813</v>
-      </c>
-      <c r="AH34" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI34" s="48">
+      <c r="AJ34" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="48">
-        <f t="shared" si="14"/>
         <v>634.04577599999993</v>
       </c>
       <c r="AK34" s="48">
@@ -8599,16 +8739,16 @@
         <v>0</v>
       </c>
       <c r="AM34" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN34" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN34" s="48">
-        <f t="shared" si="16"/>
         <v>23694.13127436272</v>
       </c>
       <c r="AO34" s="51">
         <f t="shared" si="21"/>
-        <v>4422541.5858384809</v>
+        <v>4398847.4545641178</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -8636,13 +8776,13 @@
       <c r="H35" s="17">
         <v>3000</v>
       </c>
-      <c r="I35" s="96">
-        <v>0</v>
-      </c>
-      <c r="J35" s="96">
-        <v>0</v>
-      </c>
-      <c r="K35" s="96">
+      <c r="I35" s="95">
+        <v>0</v>
+      </c>
+      <c r="J35" s="95">
+        <v>0</v>
+      </c>
+      <c r="K35" s="95">
         <v>0</v>
       </c>
       <c r="L35" s="46">
@@ -8692,11 +8832,11 @@
         <v>758.2857671999999</v>
       </c>
       <c r="Z35" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB35" s="48">
@@ -8708,31 +8848,31 @@
         <v>3526.9282386210916</v>
       </c>
       <c r="AD35" s="51">
+        <f t="shared" si="18"/>
+        <v>4607764.9834105158</v>
+      </c>
+      <c r="AE35" s="52">
         <f t="shared" si="8"/>
-        <v>4611291.9116491368</v>
-      </c>
-      <c r="AE35" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="48">
+        <v>2855225.9900994706</v>
+      </c>
+      <c r="AG35" s="48">
         <f t="shared" si="10"/>
-        <v>2855225.9900994706</v>
-      </c>
-      <c r="AG35" s="48">
+        <v>1483955.9513783308</v>
+      </c>
+      <c r="AH35" s="48">
         <f t="shared" si="11"/>
-        <v>1483955.9513783308</v>
-      </c>
-      <c r="AH35" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI35" s="48">
+      <c r="AJ35" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="48">
-        <f t="shared" si="14"/>
         <v>659.37892799999997</v>
       </c>
       <c r="AK35" s="48">
@@ -8744,16 +8884,16 @@
         <v>0</v>
       </c>
       <c r="AM35" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN35" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN35" s="48">
-        <f t="shared" si="16"/>
         <v>24492.557212646469</v>
       </c>
       <c r="AO35" s="51">
         <f t="shared" si="21"/>
-        <v>4364421.4297012482</v>
+        <v>4339928.8724886021</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -8781,13 +8921,13 @@
       <c r="H36" s="17">
         <v>3000</v>
       </c>
-      <c r="I36" s="96">
-        <v>0</v>
-      </c>
-      <c r="J36" s="96">
-        <v>0</v>
-      </c>
-      <c r="K36" s="96">
+      <c r="I36" s="95">
+        <v>0</v>
+      </c>
+      <c r="J36" s="95">
+        <v>0</v>
+      </c>
+      <c r="K36" s="95">
         <v>0</v>
       </c>
       <c r="L36" s="46">
@@ -8837,11 +8977,11 @@
         <v>777.66204359999983</v>
       </c>
       <c r="Z36" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB36" s="48">
@@ -8853,31 +8993,31 @@
         <v>3511.4587293425179</v>
       </c>
       <c r="AD36" s="51">
+        <f t="shared" si="18"/>
+        <v>4930048.2644763915</v>
+      </c>
+      <c r="AE36" s="52">
         <f t="shared" si="8"/>
-        <v>4933559.723205734</v>
-      </c>
-      <c r="AE36" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF36" s="48">
+        <v>3030786.9739341652</v>
+      </c>
+      <c r="AG36" s="48">
         <f t="shared" si="10"/>
-        <v>3030786.9739341652</v>
-      </c>
-      <c r="AG36" s="48">
+        <v>1612693.4217003011</v>
+      </c>
+      <c r="AH36" s="48">
         <f t="shared" si="11"/>
-        <v>1612693.4217003011</v>
-      </c>
-      <c r="AH36" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI36" s="48">
+      <c r="AJ36" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="48">
-        <f t="shared" si="14"/>
         <v>676.22786399999995</v>
       </c>
       <c r="AK36" s="48">
@@ -8889,16 +9029,16 @@
         <v>0</v>
       </c>
       <c r="AM36" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN36" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN36" s="48">
-        <f t="shared" si="16"/>
         <v>24385.130064878595</v>
       </c>
       <c r="AO36" s="51">
         <f t="shared" si="21"/>
-        <v>4668629.3056461457</v>
+        <v>4644244.1755812671</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -8926,13 +9066,13 @@
       <c r="H37" s="17">
         <v>3000</v>
       </c>
-      <c r="I37" s="96">
-        <v>0</v>
-      </c>
-      <c r="J37" s="96">
-        <v>0</v>
-      </c>
-      <c r="K37" s="96">
+      <c r="I37" s="95">
+        <v>0</v>
+      </c>
+      <c r="J37" s="95">
+        <v>0</v>
+      </c>
+      <c r="K37" s="95">
         <v>0</v>
       </c>
       <c r="L37" s="46">
@@ -8982,11 +9122,11 @@
         <v>818.30148419999989</v>
       </c>
       <c r="Z37" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA37" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB37" s="48">
@@ -8998,31 +9138,31 @@
         <v>3410.1174370310041</v>
       </c>
       <c r="AD37" s="51">
+        <f t="shared" si="18"/>
+        <v>5219154.6937368875</v>
+      </c>
+      <c r="AE37" s="52">
         <f t="shared" si="8"/>
-        <v>5222564.8111739187</v>
-      </c>
-      <c r="AE37" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF37" s="48">
+        <v>3148943.7074454422</v>
+      </c>
+      <c r="AG37" s="48">
         <f t="shared" si="10"/>
-        <v>3148943.7074454422</v>
-      </c>
-      <c r="AG37" s="48">
+        <v>1768735.3589717383</v>
+      </c>
+      <c r="AH37" s="48">
         <f t="shared" si="11"/>
-        <v>1768735.3589717383</v>
-      </c>
-      <c r="AH37" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI37" s="48">
+      <c r="AJ37" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="48">
-        <f t="shared" si="14"/>
         <v>711.566508</v>
       </c>
       <c r="AK37" s="48">
@@ -9034,16 +9174,16 @@
         <v>0</v>
       </c>
       <c r="AM37" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN37" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN37" s="48">
-        <f t="shared" si="16"/>
         <v>23681.371090493081</v>
       </c>
       <c r="AO37" s="51">
         <f t="shared" si="21"/>
-        <v>4942159.5560984733</v>
+        <v>4918478.1850079801</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -9071,13 +9211,13 @@
       <c r="H38" s="17">
         <v>3000</v>
       </c>
-      <c r="I38" s="96">
-        <v>0</v>
-      </c>
-      <c r="J38" s="96">
-        <v>0</v>
-      </c>
-      <c r="K38" s="96">
+      <c r="I38" s="95">
+        <v>0</v>
+      </c>
+      <c r="J38" s="95">
+        <v>0</v>
+      </c>
+      <c r="K38" s="95">
         <v>0</v>
       </c>
       <c r="L38" s="46">
@@ -9127,11 +9267,11 @@
         <v>841.48853399999996</v>
       </c>
       <c r="Z38" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB38" s="48">
@@ -9143,31 +9283,31 @@
         <v>3477.1529856534239</v>
       </c>
       <c r="AD38" s="51">
+        <f t="shared" si="18"/>
+        <v>5415400.5563141815</v>
+      </c>
+      <c r="AE38" s="52">
         <f t="shared" si="8"/>
-        <v>5418877.7092998354</v>
-      </c>
-      <c r="AE38" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF38" s="48">
+        <v>3275856.7904514493</v>
+      </c>
+      <c r="AG38" s="48">
         <f t="shared" si="10"/>
-        <v>3275856.7904514493</v>
-      </c>
-      <c r="AG38" s="48">
+        <v>1826470.8757621699</v>
+      </c>
+      <c r="AH38" s="48">
         <f t="shared" si="11"/>
-        <v>1826470.8757621699</v>
-      </c>
-      <c r="AH38" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI38" s="48">
+      <c r="AJ38" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="48">
-        <f t="shared" si="14"/>
         <v>731.72915999999998</v>
       </c>
       <c r="AK38" s="48">
@@ -9179,16 +9319,16 @@
         <v>0</v>
       </c>
       <c r="AM38" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN38" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN38" s="48">
-        <f t="shared" si="16"/>
         <v>24146.895733704328</v>
       </c>
       <c r="AO38" s="51">
         <f t="shared" si="21"/>
-        <v>5127293.8431901243</v>
+        <v>5103146.9474564195</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -9216,13 +9356,13 @@
       <c r="H39" s="17">
         <v>3000</v>
       </c>
-      <c r="I39" s="96">
-        <v>0</v>
-      </c>
-      <c r="J39" s="96">
-        <v>0</v>
-      </c>
-      <c r="K39" s="96">
+      <c r="I39" s="95">
+        <v>0</v>
+      </c>
+      <c r="J39" s="95">
+        <v>0</v>
+      </c>
+      <c r="K39" s="95">
         <v>0</v>
       </c>
       <c r="L39" s="46">
@@ -9272,11 +9412,11 @@
         <v>895.40489939999986</v>
       </c>
       <c r="Z39" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB39" s="48">
@@ -9288,31 +9428,31 @@
         <v>3594.2680927896968</v>
       </c>
       <c r="AD39" s="51">
+        <f t="shared" si="18"/>
+        <v>5487653.2121359659</v>
+      </c>
+      <c r="AE39" s="52">
         <f t="shared" si="8"/>
-        <v>5491247.4802287556</v>
-      </c>
-      <c r="AE39" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF39" s="48">
+        <v>3366586.2403531643</v>
+      </c>
+      <c r="AG39" s="48">
         <f t="shared" si="10"/>
-        <v>3366586.2403531643</v>
-      </c>
-      <c r="AG39" s="48">
+        <v>1802284.3754850971</v>
+      </c>
+      <c r="AH39" s="48">
         <f t="shared" si="11"/>
-        <v>1802284.3754850971</v>
-      </c>
-      <c r="AH39" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI39" s="48">
+      <c r="AJ39" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="48">
-        <f t="shared" si="14"/>
         <v>778.61295599999994</v>
       </c>
       <c r="AK39" s="48">
@@ -9324,16 +9464,16 @@
         <v>0</v>
       </c>
       <c r="AM39" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN39" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN39" s="48">
-        <f t="shared" si="16"/>
         <v>24960.195088817338</v>
       </c>
       <c r="AO39" s="51">
         <f t="shared" si="21"/>
-        <v>5194696.9759658789</v>
+        <v>5169736.7808770612</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -9361,13 +9501,13 @@
       <c r="H40" s="17">
         <v>3000</v>
       </c>
-      <c r="I40" s="96">
-        <v>0</v>
-      </c>
-      <c r="J40" s="96">
-        <v>0</v>
-      </c>
-      <c r="K40" s="96">
+      <c r="I40" s="95">
+        <v>0</v>
+      </c>
+      <c r="J40" s="95">
+        <v>0</v>
+      </c>
+      <c r="K40" s="95">
         <v>0</v>
       </c>
       <c r="L40" s="48">
@@ -9417,11 +9557,11 @@
         <v>943.90372979999995</v>
       </c>
       <c r="Z40" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB40" s="48">
@@ -9433,31 +9573,31 @@
         <v>3723.1731590168038</v>
       </c>
       <c r="AD40" s="51">
+        <f t="shared" si="18"/>
+        <v>5775501.9147123108</v>
+      </c>
+      <c r="AE40" s="52">
         <f t="shared" si="8"/>
-        <v>5779225.087871328</v>
-      </c>
-      <c r="AE40" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF40" s="48">
+        <v>3498309.6713158614</v>
+      </c>
+      <c r="AG40" s="48">
         <f t="shared" si="10"/>
-        <v>3498309.6713158614</v>
-      </c>
-      <c r="AG40" s="48">
+        <v>1943112.2238725689</v>
+      </c>
+      <c r="AH40" s="48">
         <f t="shared" si="11"/>
-        <v>1943112.2238725689</v>
-      </c>
-      <c r="AH40" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI40" s="48">
+      <c r="AJ40" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="48">
-        <f t="shared" si="14"/>
         <v>820.78585199999998</v>
       </c>
       <c r="AK40" s="48">
@@ -9469,16 +9609,16 @@
         <v>0</v>
       </c>
       <c r="AM40" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN40" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN40" s="48">
-        <f t="shared" si="16"/>
         <v>25855.369159838912</v>
       </c>
       <c r="AO40" s="51">
         <f t="shared" si="21"/>
-        <v>5468185.6022830699</v>
+        <v>5442330.2331232307</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -9506,13 +9646,13 @@
       <c r="H41" s="17">
         <v>3000</v>
       </c>
-      <c r="I41" s="96">
-        <v>0</v>
-      </c>
-      <c r="J41" s="96">
-        <v>0</v>
-      </c>
-      <c r="K41" s="96">
+      <c r="I41" s="95">
+        <v>0</v>
+      </c>
+      <c r="J41" s="95">
+        <v>0</v>
+      </c>
+      <c r="K41" s="95">
         <v>0</v>
       </c>
       <c r="L41" s="48">
@@ -9562,11 +9702,11 @@
         <v>977.48187599999994</v>
       </c>
       <c r="Z41" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA41" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB41" s="48">
@@ -9578,31 +9718,31 @@
         <v>3904.331453358101</v>
       </c>
       <c r="AD41" s="51">
+        <f t="shared" si="18"/>
+        <v>6101936.1516594877</v>
+      </c>
+      <c r="AE41" s="52">
         <f t="shared" si="8"/>
-        <v>6105840.4831128456</v>
-      </c>
-      <c r="AE41" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF41" s="48">
+        <v>3655798.5366295152</v>
+      </c>
+      <c r="AG41" s="48">
         <f t="shared" si="10"/>
-        <v>3655798.5366295152</v>
-      </c>
-      <c r="AG41" s="48">
+        <v>2094472.903025863</v>
+      </c>
+      <c r="AH41" s="48">
         <f t="shared" si="11"/>
-        <v>2094472.903025863</v>
-      </c>
-      <c r="AH41" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI41" s="48">
+      <c r="AJ41" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="48">
-        <f t="shared" si="14"/>
         <v>849.98424</v>
       </c>
       <c r="AK41" s="48">
@@ -9614,16 +9754,16 @@
         <v>0</v>
       </c>
       <c r="AM41" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN41" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN41" s="48">
-        <f t="shared" si="16"/>
         <v>27113.412870542365</v>
       </c>
       <c r="AO41" s="51">
         <f t="shared" si="21"/>
-        <v>5778322.388848721</v>
+        <v>5751208.9759781789</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -9651,13 +9791,13 @@
       <c r="H42" s="17">
         <v>3000</v>
       </c>
-      <c r="I42" s="96">
-        <v>0</v>
-      </c>
-      <c r="J42" s="96">
-        <v>0</v>
-      </c>
-      <c r="K42" s="96">
+      <c r="I42" s="95">
+        <v>0</v>
+      </c>
+      <c r="J42" s="95">
+        <v>0</v>
+      </c>
+      <c r="K42" s="95">
         <v>0</v>
       </c>
       <c r="L42" s="48">
@@ -9707,11 +9847,11 @@
         <v>1012.2545225999999</v>
       </c>
       <c r="Z42" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB42" s="48">
@@ -9723,31 +9863,31 @@
         <v>4117.2173250327405</v>
       </c>
       <c r="AD42" s="51">
+        <f t="shared" si="18"/>
+        <v>6394906.7801511111</v>
+      </c>
+      <c r="AE42" s="52">
         <f t="shared" si="8"/>
-        <v>6399023.9974761438</v>
-      </c>
-      <c r="AE42" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF42" s="48">
+        <v>3814994.6556755528</v>
+      </c>
+      <c r="AG42" s="48">
         <f t="shared" si="10"/>
-        <v>3814994.6556755528</v>
-      </c>
-      <c r="AG42" s="48">
+        <v>2211894.460822619</v>
+      </c>
+      <c r="AH42" s="48">
         <f t="shared" si="11"/>
-        <v>2211894.460822619</v>
-      </c>
-      <c r="AH42" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI42" s="48">
+      <c r="AJ42" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="48">
-        <f t="shared" si="14"/>
         <v>880.22132399999998</v>
       </c>
       <c r="AK42" s="48">
@@ -9759,16 +9899,16 @@
         <v>0</v>
       </c>
       <c r="AM42" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN42" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN42" s="48">
-        <f t="shared" si="16"/>
         <v>28591.786979394026</v>
       </c>
       <c r="AO42" s="51">
         <f t="shared" si="21"/>
-        <v>6056448.6768843662</v>
+        <v>6027856.8899049722</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -9796,13 +9936,13 @@
       <c r="H43" s="17">
         <v>3000</v>
       </c>
-      <c r="I43" s="96">
-        <v>0</v>
-      </c>
-      <c r="J43" s="96">
-        <v>0</v>
-      </c>
-      <c r="K43" s="96">
+      <c r="I43" s="95">
+        <v>0</v>
+      </c>
+      <c r="J43" s="95">
+        <v>0</v>
+      </c>
+      <c r="K43" s="95">
         <v>0</v>
       </c>
       <c r="L43" s="48">
@@ -9852,11 +9992,11 @@
         <v>1048.2639528</v>
       </c>
       <c r="Z43" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB43" s="48">
@@ -9868,31 +10008,31 @@
         <v>4598.9898580517502</v>
       </c>
       <c r="AD43" s="51">
+        <f t="shared" si="18"/>
+        <v>6771416.148916523</v>
+      </c>
+      <c r="AE43" s="52">
         <f t="shared" si="8"/>
-        <v>6776015.1387745747</v>
-      </c>
-      <c r="AE43" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF43" s="48">
+        <v>4038811.1728562466</v>
+      </c>
+      <c r="AG43" s="48">
         <f t="shared" si="10"/>
-        <v>4038811.1728562466</v>
-      </c>
-      <c r="AG43" s="48">
+        <v>2342969.6881306265</v>
+      </c>
+      <c r="AH43" s="48">
         <f t="shared" si="11"/>
-        <v>2342969.6881306265</v>
-      </c>
-      <c r="AH43" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI43" s="48">
+      <c r="AJ43" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="48">
-        <f t="shared" si="14"/>
         <v>911.53387199999997</v>
       </c>
       <c r="AK43" s="48">
@@ -9904,16 +10044,16 @@
         <v>0</v>
       </c>
       <c r="AM43" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN43" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN43" s="48">
-        <f t="shared" si="16"/>
         <v>31937.429569803819</v>
       </c>
       <c r="AO43" s="51">
         <f t="shared" si="21"/>
-        <v>6414717.3765114779</v>
+        <v>6382779.9469416738</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -9941,13 +10081,13 @@
       <c r="H44" s="17">
         <v>3000</v>
       </c>
-      <c r="I44" s="96">
-        <v>0</v>
-      </c>
-      <c r="J44" s="96">
-        <v>0</v>
-      </c>
-      <c r="K44" s="96">
+      <c r="I44" s="95">
+        <v>0</v>
+      </c>
+      <c r="J44" s="95">
+        <v>0</v>
+      </c>
+      <c r="K44" s="95">
         <v>0</v>
       </c>
       <c r="L44" s="48">
@@ -9997,11 +10137,11 @@
         <v>1085.5524497999997</v>
       </c>
       <c r="Z44" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB44" s="48">
@@ -10013,31 +10153,31 @@
         <v>4956.8788579231923</v>
       </c>
       <c r="AD44" s="51">
+        <f t="shared" si="18"/>
+        <v>7267659.9643259216</v>
+      </c>
+      <c r="AE44" s="52">
         <f t="shared" si="8"/>
-        <v>7272616.8431838444</v>
-      </c>
-      <c r="AE44" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF44" s="48">
+        <v>4288762.7554949922</v>
+      </c>
+      <c r="AG44" s="48">
         <f t="shared" si="10"/>
-        <v>4288762.7554949922</v>
-      </c>
-      <c r="AG44" s="48">
+        <v>2562208.609996995</v>
+      </c>
+      <c r="AH44" s="48">
         <f t="shared" si="11"/>
-        <v>2562208.609996995</v>
-      </c>
-      <c r="AH44" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI44" s="48">
+      <c r="AJ44" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="48">
-        <f t="shared" si="14"/>
         <v>943.95865199999992</v>
       </c>
       <c r="AK44" s="48">
@@ -10049,16 +10189,16 @@
         <v>0</v>
       </c>
       <c r="AM44" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN44" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN44" s="48">
-        <f t="shared" si="16"/>
         <v>34422.769846688832</v>
       </c>
       <c r="AO44" s="51">
         <f t="shared" si="21"/>
-        <v>6886425.6460734764</v>
+        <v>6852002.8762267875</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -10086,13 +10226,13 @@
       <c r="H45" s="17">
         <v>3000</v>
       </c>
-      <c r="I45" s="96">
-        <v>0</v>
-      </c>
-      <c r="J45" s="96">
-        <v>0</v>
-      </c>
-      <c r="K45" s="96">
+      <c r="I45" s="95">
+        <v>0</v>
+      </c>
+      <c r="J45" s="95">
+        <v>0</v>
+      </c>
+      <c r="K45" s="95">
         <v>0</v>
       </c>
       <c r="L45" s="48">
@@ -10142,11 +10282,11 @@
         <v>1124.1675822</v>
       </c>
       <c r="Z45" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA45" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB45" s="48">
@@ -10158,31 +10298,31 @@
         <v>5133.5442292187636</v>
       </c>
       <c r="AD45" s="51">
+        <f t="shared" si="18"/>
+        <v>7612222.180648311</v>
+      </c>
+      <c r="AE45" s="52">
         <f t="shared" si="8"/>
-        <v>7617355.7248775298</v>
-      </c>
-      <c r="AE45" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF45" s="48">
+        <v>4469082.9702697797</v>
+      </c>
+      <c r="AG45" s="48">
         <f t="shared" si="10"/>
-        <v>4469082.9702697797</v>
-      </c>
-      <c r="AG45" s="48">
+        <v>2707439.3895514598</v>
+      </c>
+      <c r="AH45" s="48">
         <f t="shared" si="11"/>
-        <v>2707439.3895514598</v>
-      </c>
-      <c r="AH45" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI45" s="48">
+      <c r="AJ45" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="48">
-        <f t="shared" si="14"/>
         <v>977.53702799999996</v>
       </c>
       <c r="AK45" s="48">
@@ -10194,16 +10334,16 @@
         <v>0</v>
       </c>
       <c r="AM45" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN45" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN45" s="48">
-        <f t="shared" si="16"/>
         <v>35649.612702908082</v>
       </c>
       <c r="AO45" s="51">
         <f t="shared" si="21"/>
-        <v>7213237.0616349475</v>
+        <v>7177587.4489320396</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -10231,13 +10371,13 @@
       <c r="H46" s="17">
         <v>3000</v>
       </c>
-      <c r="I46" s="96">
-        <v>0</v>
-      </c>
-      <c r="J46" s="96">
-        <v>0</v>
-      </c>
-      <c r="K46" s="96">
+      <c r="I46" s="95">
+        <v>0</v>
+      </c>
+      <c r="J46" s="95">
+        <v>0</v>
+      </c>
+      <c r="K46" s="95">
         <v>0</v>
       </c>
       <c r="L46" s="48">
@@ -10287,11 +10427,11 @@
         <v>1158.6971004</v>
       </c>
       <c r="Z46" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA46" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB46" s="48">
@@ -10303,31 +10443,31 @@
         <v>5472.1686100067327</v>
       </c>
       <c r="AD46" s="51">
+        <f t="shared" si="18"/>
+        <v>7837677.6198742716</v>
+      </c>
+      <c r="AE46" s="52">
         <f t="shared" si="8"/>
-        <v>7843149.7884842781</v>
-      </c>
-      <c r="AE46" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF46" s="48">
+        <v>4597392.5310234791</v>
+      </c>
+      <c r="AG46" s="48">
         <f t="shared" si="10"/>
-        <v>4597392.5310234791</v>
-      </c>
-      <c r="AG46" s="48">
+        <v>2791809.3424543831</v>
+      </c>
+      <c r="AH46" s="48">
         <f t="shared" si="11"/>
-        <v>2791809.3424543831</v>
-      </c>
-      <c r="AH46" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI46" s="48">
+      <c r="AJ46" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="48">
-        <f t="shared" si="14"/>
         <v>1007.562696</v>
       </c>
       <c r="AK46" s="48">
@@ -10339,16 +10479,16 @@
         <v>0</v>
       </c>
       <c r="AM46" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN46" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN46" s="48">
-        <f t="shared" si="16"/>
         <v>38001.170902824524</v>
       </c>
       <c r="AO46" s="51">
         <f t="shared" si="21"/>
-        <v>7428298.1591594871</v>
+        <v>7390296.9882566622</v>
       </c>
     </row>
     <row r="47" spans="1:41">
@@ -10376,13 +10516,13 @@
       <c r="H47" s="17">
         <v>3000</v>
       </c>
-      <c r="I47" s="96">
-        <v>0</v>
-      </c>
-      <c r="J47" s="96">
-        <v>0</v>
-      </c>
-      <c r="K47" s="96">
+      <c r="I47" s="95">
+        <v>0</v>
+      </c>
+      <c r="J47" s="95">
+        <v>0</v>
+      </c>
+      <c r="K47" s="95">
         <v>0</v>
       </c>
       <c r="L47" s="48">
@@ -10432,11 +10572,11 @@
         <v>1194.2889839999998</v>
       </c>
       <c r="Z47" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB47" s="48">
@@ -10448,31 +10588,31 @@
         <v>5711.6695492877052</v>
       </c>
       <c r="AD47" s="51">
+        <f t="shared" si="18"/>
+        <v>8179516.6337993983</v>
+      </c>
+      <c r="AE47" s="52">
         <f t="shared" si="8"/>
-        <v>8185228.3033486856</v>
-      </c>
-      <c r="AE47" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF47" s="48">
+        <v>4880579.6194905657</v>
+      </c>
+      <c r="AG47" s="48">
         <f t="shared" si="10"/>
-        <v>4880579.6194905657</v>
-      </c>
-      <c r="AG47" s="48">
+        <v>2828293.6464124038</v>
+      </c>
+      <c r="AH47" s="48">
         <f t="shared" si="11"/>
-        <v>2828293.6464124038</v>
-      </c>
-      <c r="AH47" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI47" s="48">
+      <c r="AJ47" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="48">
-        <f t="shared" si="14"/>
         <v>1038.51216</v>
       </c>
       <c r="AK47" s="48">
@@ -10484,16 +10624,16 @@
         <v>0</v>
       </c>
       <c r="AM47" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN47" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN47" s="48">
-        <f t="shared" si="16"/>
         <v>39664.371870053503</v>
       </c>
       <c r="AO47" s="51">
         <f t="shared" si="21"/>
-        <v>7749663.7020158246</v>
+        <v>7709999.3301457707</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -10521,13 +10661,13 @@
       <c r="H48" s="17">
         <v>3000</v>
       </c>
-      <c r="I48" s="96">
-        <v>0</v>
-      </c>
-      <c r="J48" s="96">
-        <v>0</v>
-      </c>
-      <c r="K48" s="96">
+      <c r="I48" s="95">
+        <v>0</v>
+      </c>
+      <c r="J48" s="95">
+        <v>0</v>
+      </c>
+      <c r="K48" s="95">
         <v>0</v>
       </c>
       <c r="L48" s="48">
@@ -10577,11 +10717,11 @@
         <v>1230.96966</v>
       </c>
       <c r="Z48" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA48" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB48" s="48">
@@ -10593,31 +10733,31 @@
         <v>5946.2052685375365</v>
       </c>
       <c r="AD48" s="51">
+        <f t="shared" si="18"/>
+        <v>8015642.6207443634</v>
+      </c>
+      <c r="AE48" s="52">
         <f t="shared" si="8"/>
-        <v>8021588.826012901</v>
-      </c>
-      <c r="AE48" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF48" s="48">
+        <v>4506069.6822020356</v>
+      </c>
+      <c r="AG48" s="48">
         <f t="shared" si="10"/>
-        <v>4506069.6822020356</v>
-      </c>
-      <c r="AG48" s="48">
+        <v>3057080.6358158262</v>
+      </c>
+      <c r="AH48" s="48">
         <f t="shared" si="11"/>
-        <v>3057080.6358158262</v>
-      </c>
-      <c r="AH48" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI48" s="48">
+      <c r="AJ48" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="48">
-        <f t="shared" si="14"/>
         <v>1070.4084</v>
       </c>
       <c r="AK48" s="48">
@@ -10629,16 +10769,16 @@
         <v>0</v>
       </c>
       <c r="AM48" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN48" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN48" s="48">
-        <f t="shared" si="16"/>
         <v>41293.092142621776</v>
       </c>
       <c r="AO48" s="51">
         <f t="shared" si="21"/>
-        <v>7605601.3706432842</v>
+        <v>7564308.2785006622</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -10666,13 +10806,13 @@
       <c r="H49" s="17">
         <v>3000</v>
       </c>
-      <c r="I49" s="96">
-        <v>0</v>
-      </c>
-      <c r="J49" s="96">
-        <v>0</v>
-      </c>
-      <c r="K49" s="96">
+      <c r="I49" s="95">
+        <v>0</v>
+      </c>
+      <c r="J49" s="95">
+        <v>0</v>
+      </c>
+      <c r="K49" s="95">
         <v>0</v>
       </c>
       <c r="L49" s="48">
@@ -10722,11 +10862,11 @@
         <v>1268.7814116</v>
       </c>
       <c r="Z49" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA49" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB49" s="48">
@@ -10738,31 +10878,31 @@
         <v>5965.2807862216196</v>
       </c>
       <c r="AD49" s="51">
+        <f t="shared" si="18"/>
+        <v>8461200.696782466</v>
+      </c>
+      <c r="AE49" s="52">
         <f t="shared" si="8"/>
-        <v>8467165.9775686879</v>
-      </c>
-      <c r="AE49" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF49" s="48">
+        <v>4994582.5833228836</v>
+      </c>
+      <c r="AG49" s="48">
         <f t="shared" si="10"/>
-        <v>4994582.5833228836</v>
-      </c>
-      <c r="AG49" s="48">
+        <v>2981451.7140695122</v>
+      </c>
+      <c r="AH49" s="48">
         <f t="shared" si="11"/>
-        <v>2981451.7140695122</v>
-      </c>
-      <c r="AH49" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI49" s="48">
+      <c r="AJ49" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="48">
-        <f t="shared" si="14"/>
         <v>1103.288184</v>
       </c>
       <c r="AK49" s="48">
@@ -10774,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="AM49" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN49" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN49" s="48">
-        <f t="shared" si="16"/>
         <v>41425.561015427913</v>
       </c>
       <c r="AO49" s="51">
         <f t="shared" si="21"/>
-        <v>8018650.6986746248</v>
+        <v>7977225.1376591967</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -10811,13 +10951,13 @@
       <c r="H50" s="17">
         <v>3000</v>
       </c>
-      <c r="I50" s="96">
-        <v>0</v>
-      </c>
-      <c r="J50" s="96">
-        <v>0</v>
-      </c>
-      <c r="K50" s="96">
+      <c r="I50" s="95">
+        <v>0</v>
+      </c>
+      <c r="J50" s="95">
+        <v>0</v>
+      </c>
+      <c r="K50" s="95">
         <v>0</v>
       </c>
       <c r="L50" s="48">
@@ -10867,11 +11007,11 @@
         <v>1307.7559511999998</v>
       </c>
       <c r="Z50" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="48">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA50" s="48">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB50" s="48">
@@ -10883,31 +11023,31 @@
         <v>6195.9740496908162</v>
       </c>
       <c r="AD50" s="51">
+        <f t="shared" si="18"/>
+        <v>9257115.3851322886</v>
+      </c>
+      <c r="AE50" s="52">
         <f t="shared" si="8"/>
-        <v>9263311.3591819797</v>
-      </c>
-      <c r="AE50" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF50" s="48">
+        <v>5397055.6225298457</v>
+      </c>
+      <c r="AG50" s="48">
         <f t="shared" si="10"/>
-        <v>5397055.6225298457</v>
-      </c>
-      <c r="AG50" s="48">
+        <v>3331473.0051667737</v>
+      </c>
+      <c r="AH50" s="48">
         <f t="shared" si="11"/>
-        <v>3331473.0051667737</v>
-      </c>
-      <c r="AH50" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI50" s="48">
+      <c r="AJ50" s="48">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="48">
-        <f t="shared" si="14"/>
         <v>1137.1790879999999</v>
       </c>
       <c r="AK50" s="48">
@@ -10919,23 +11059,23 @@
         <v>0</v>
       </c>
       <c r="AM50" s="48">
+        <f t="shared" si="14"/>
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN50" s="48">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN50" s="48">
-        <f t="shared" si="16"/>
         <v>43027.597567297329</v>
       </c>
       <c r="AO50" s="51">
         <f t="shared" si="21"/>
-        <v>8772780.9564347155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:41" ht="15.75" thickBot="1">
+        <v>8729753.358867418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" ht="15" thickBot="1">
       <c r="A51" s="53">
         <v>2011</v>
       </c>
-      <c r="B51" s="94">
+      <c r="B51" s="93">
         <v>0</v>
       </c>
       <c r="C51" s="54">
@@ -10944,44 +11084,44 @@
       <c r="D51" s="54">
         <v>3504.3074499999998</v>
       </c>
-      <c r="E51" s="95">
-        <v>0</v>
-      </c>
-      <c r="F51" s="95">
+      <c r="E51" s="94">
+        <v>0</v>
+      </c>
+      <c r="F51" s="94">
         <v>0</v>
       </c>
       <c r="G51" s="56">
         <v>247428</v>
       </c>
-      <c r="H51" s="62">
+      <c r="H51" s="61">
         <v>3000</v>
       </c>
-      <c r="I51" s="97">
-        <v>0</v>
-      </c>
-      <c r="J51" s="97">
-        <v>0</v>
-      </c>
-      <c r="K51" s="97">
+      <c r="I51" s="96">
+        <v>0</v>
+      </c>
+      <c r="J51" s="96">
+        <v>0</v>
+      </c>
+      <c r="K51" s="96">
         <v>0</v>
       </c>
       <c r="L51" s="55">
         <v>3120</v>
       </c>
-      <c r="M51" s="63">
+      <c r="M51" s="62">
         <v>9239155.9890000001</v>
       </c>
       <c r="N51" s="57"/>
       <c r="O51" s="55">
         <v>5909.9993400000003</v>
       </c>
-      <c r="P51" s="61">
+      <c r="P51" s="60">
         <v>1020</v>
       </c>
-      <c r="Q51" s="93">
+      <c r="Q51" s="92">
         <v>26.8</v>
       </c>
-      <c r="R51" s="93">
+      <c r="R51" s="92">
         <v>37.799999999999997</v>
       </c>
       <c r="S51" s="58">
@@ -11011,12 +11151,12 @@
         <f t="shared" si="5"/>
         <v>1307.7559511999998</v>
       </c>
-      <c r="Z51" s="98">
+      <c r="Z51" s="97">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="97">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA51" s="98">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB51" s="55">
@@ -11027,61 +11167,61 @@
         <f t="shared" si="7"/>
         <v>6339.1922950612434</v>
       </c>
-      <c r="AD51" s="59">
+      <c r="AD51" s="111">
+        <f t="shared" si="18"/>
+        <v>11215351.745005729</v>
+      </c>
+      <c r="AE51" s="57">
         <f t="shared" si="8"/>
-        <v>11221690.93730079</v>
-      </c>
-      <c r="AE51" s="57">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="55">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF51" s="55">
+        <v>6795877.6293763341</v>
+      </c>
+      <c r="AG51" s="55">
         <f t="shared" si="10"/>
-        <v>6795877.6293763341</v>
-      </c>
-      <c r="AG51" s="55">
+        <v>3771184.8768275036</v>
+      </c>
+      <c r="AH51" s="55">
         <f t="shared" si="11"/>
-        <v>3771184.8768275036</v>
-      </c>
-      <c r="AH51" s="55">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="55">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI51" s="55">
+      <c r="AJ51" s="55">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="55">
+        <v>1137.1790879999999</v>
+      </c>
+      <c r="AK51" s="97">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AL51" s="97">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AM51" s="55">
         <f t="shared" si="14"/>
-        <v>1137.1790879999999</v>
-      </c>
-      <c r="AK51" s="98">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AL51" s="98">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AM51" s="55">
+        <v>87.552082800000008</v>
+      </c>
+      <c r="AN51" s="55">
         <f t="shared" si="15"/>
-        <v>87.552082800000008</v>
-      </c>
-      <c r="AN51" s="55">
-        <f t="shared" si="16"/>
         <v>44022.168715703076</v>
       </c>
-      <c r="AO51" s="59">
+      <c r="AO51" s="111">
         <f t="shared" si="21"/>
-        <v>10612309.40609034</v>
+        <v>10568287.237374637</v>
       </c>
     </row>
     <row r="52" spans="1:41">
-      <c r="E52" s="60"/>
+      <c r="E52" s="59"/>
       <c r="AC52" s="48"/>
     </row>
     <row r="53" spans="1:41">
-      <c r="E53" s="60"/>
+      <c r="E53" s="59"/>
       <c r="AC53" s="48"/>
     </row>
     <row r="54" spans="1:41">
@@ -11563,31 +11703,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AK29:AK30"/>
-    <mergeCell ref="AL29:AL30"/>
-    <mergeCell ref="AJ29:AJ30"/>
-    <mergeCell ref="AM29:AM30"/>
-    <mergeCell ref="AN29:AN30"/>
-    <mergeCell ref="AO29:AO30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="AF29:AF30"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
     <mergeCell ref="Y29:Y30"/>
     <mergeCell ref="AB29:AB30"/>
     <mergeCell ref="AC29:AC30"/>
@@ -11604,6 +11719,31 @@
     <mergeCell ref="W29:W30"/>
     <mergeCell ref="Q29:Q30"/>
     <mergeCell ref="R29:R30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="AM29:AM30"/>
+    <mergeCell ref="AN29:AN30"/>
+    <mergeCell ref="AO29:AO30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="AF29:AF30"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AK29:AK30"/>
+    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="AJ29:AJ30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/data/Excel Workbooks/Calvin2011/SaudiArabiaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Calvin2011/SaudiArabiaDataWorkbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="400" windowWidth="21840" windowHeight="13740" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="400" windowWidth="21840" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Saudi Arabia Workbook" sheetId="1" r:id="rId1"/>
@@ -2661,11 +2661,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2693,9 +2696,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="500">
@@ -3662,64 +3662,64 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.049243271788266</c:v>
+                  <c:v>1.03768794059826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.079192874375174</c:v>
+                  <c:v>1.070795588502361</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.105944157653531</c:v>
+                  <c:v>1.110154905870156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.125713248430304</c:v>
+                  <c:v>1.128557210700203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.120775741806009</c:v>
+                  <c:v>1.116426751894691</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.08842996450357</c:v>
+                  <c:v>1.106743095488736</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.096769370188294</c:v>
+                  <c:v>1.095634764680754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.133710011806122</c:v>
+                  <c:v>1.126120489587856</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.160714003043833</c:v>
+                  <c:v>1.180117283328342</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.217190820003109</c:v>
+                  <c:v>1.234682425944144</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.283558835066958</c:v>
+                  <c:v>1.307579382086893</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.408025296562375</c:v>
+                  <c:v>1.402695615502772</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.517596480829755</c:v>
+                  <c:v>1.497999767591121</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.571684295651796</c:v>
+                  <c:v>1.603620741956225</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.645823885723752</c:v>
+                  <c:v>1.653272400722243</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.717856820856833</c:v>
+                  <c:v>1.729400439019351</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.78839640329786</c:v>
+                  <c:v>1.789756893733211</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.794133606383964</c:v>
+                  <c:v>1.826058967733858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.86351752167467</c:v>
+                  <c:v>1.88998342469156</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.906592219459211</c:v>
+                  <c:v>1.976029579256867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4066,11 +4066,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2105628376"/>
-        <c:axId val="-2105661864"/>
+        <c:axId val="2086195272"/>
+        <c:axId val="2086372008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2105628376"/>
+        <c:axId val="2086195272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4121,12 +4121,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105661864"/>
+        <c:crossAx val="2086372008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2105661864"/>
+        <c:axId val="2086372008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4172,7 +4172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105628376"/>
+        <c:crossAx val="2086195272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="D12" s="81">
         <f>'Employment calcs'!F7</f>
-        <v>4845900.3947999999</v>
+        <v>4865845.5961801764</v>
       </c>
       <c r="E12" s="68">
         <f>'Exergy calcs'!AO31</f>
@@ -5172,23 +5172,23 @@
         <v>4129026.4530620594</v>
       </c>
       <c r="G12" s="76">
-        <f>A12-$A$12</f>
+        <f t="shared" ref="G12:G32" si="0">A12-$A$12</f>
         <v>0</v>
       </c>
       <c r="H12" s="22">
-        <f>B12/$B$12</f>
+        <f t="shared" ref="H12:H32" si="1">B12/$B$12</f>
         <v>1</v>
       </c>
       <c r="I12" s="20">
-        <f>C12/$C$12</f>
+        <f t="shared" ref="I12:I32" si="2">C12/$C$12</f>
         <v>1</v>
       </c>
       <c r="J12" s="20">
-        <f>D12/$D$12</f>
+        <f t="shared" ref="J12:J32" si="3">D12/$D$12</f>
         <v>1</v>
       </c>
       <c r="K12" s="72">
-        <f t="shared" ref="K12:K32" si="0">E12/$E$12</f>
+        <f t="shared" ref="K12:K32" si="4">E12/$E$12</f>
         <v>1</v>
       </c>
       <c r="L12" s="20">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="D13" s="81">
         <f>'Employment calcs'!F8</f>
-        <v>5084528.3850000016</v>
+        <v>5049229.2959693149</v>
       </c>
       <c r="E13" s="68">
         <f>'Exergy calcs'!AO32</f>
@@ -5219,27 +5219,27 @@
         <v>4357275.1384821674</v>
       </c>
       <c r="G13" s="76">
-        <f>A13-$A$12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H13" s="22">
-        <f>B13/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.0462856254344566</v>
       </c>
       <c r="I13" s="20">
-        <f>C13/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.0598546016298735</v>
       </c>
       <c r="J13" s="20">
-        <f>D13/$D$12</f>
-        <v>1.049243271788266</v>
+        <f t="shared" si="3"/>
+        <v>1.0376879405982591</v>
       </c>
       <c r="K13" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0553504171748396</v>
       </c>
       <c r="L13" s="20">
-        <f t="shared" ref="L13:L32" si="1">F13/$F$12</f>
+        <f t="shared" ref="L13:L32" si="5">F13/$F$12</f>
         <v>1.0552790562169541</v>
       </c>
     </row>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="D14" s="81">
         <f>'Employment calcs'!F9</f>
-        <v>5229661.1760000009</v>
+        <v>5210325.9987233756</v>
       </c>
       <c r="E14" s="68">
         <f>'Exergy calcs'!AO33</f>
@@ -5266,27 +5266,27 @@
         <v>4534729.6079352479</v>
       </c>
       <c r="G14" s="76">
-        <f>A14-$A$12</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H14" s="22">
-        <f>B14/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.0465554457981194</v>
       </c>
       <c r="I14" s="20">
-        <f>C14/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.116506736173992</v>
       </c>
       <c r="J14" s="20">
-        <f>D14/$D$12</f>
-        <v>1.0791928743751737</v>
+        <f t="shared" si="3"/>
+        <v>1.0707955885023615</v>
       </c>
       <c r="K14" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0984891078023766</v>
       </c>
       <c r="L14" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0982563709593873</v>
       </c>
       <c r="O14" s="18"/>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="D15" s="81">
         <f>'Employment calcs'!F10</f>
-        <v>5359295.230200001</v>
+        <v>5401842.3598061148</v>
       </c>
       <c r="E15" s="68">
         <f>'Exergy calcs'!AO34</f>
@@ -5314,27 +5314,27 @@
         <v>4671420.4746732665</v>
       </c>
       <c r="G15" s="76">
-        <f>A15-$A$12</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H15" s="22">
-        <f>B15/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.0535250429883292</v>
       </c>
       <c r="I15" s="20">
-        <f>C15/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.1702659465214034</v>
       </c>
       <c r="J15" s="20">
-        <f>D15/$D$12</f>
-        <v>1.1059441576535314</v>
+        <f t="shared" si="3"/>
+        <v>1.1101549058701556</v>
       </c>
       <c r="K15" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.131822084103818</v>
       </c>
       <c r="L15" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1313612367896</v>
       </c>
     </row>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="D16" s="81">
         <f>'Employment calcs'!F11</f>
-        <v>5455094.2750000004</v>
+        <v>5491385.1337229665</v>
       </c>
       <c r="E16" s="68">
         <f>'Exergy calcs'!AO35</f>
@@ -5361,27 +5361,27 @@
         <v>4607764.9834105158</v>
       </c>
       <c r="G16" s="76">
-        <f>A16-$A$12</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H16" s="22">
-        <f>B16/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.0556378736326053</v>
       </c>
       <c r="I16" s="20">
-        <f>C16/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.2187947499211678</v>
       </c>
       <c r="J16" s="20">
-        <f>D16/$D$12</f>
-        <v>1.1257132484303041</v>
+        <f t="shared" si="3"/>
+        <v>1.1285572107002031</v>
       </c>
       <c r="K16" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1166623512315266</v>
       </c>
       <c r="L16" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1159446508252393</v>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="D17" s="81">
         <f>'Employment calcs'!F12</f>
-        <v>5431167.6096999999</v>
+        <v>5432360.1941645201</v>
       </c>
       <c r="E17" s="68">
         <f>'Exergy calcs'!AO36</f>
@@ -5408,27 +5408,27 @@
         <v>4930048.2644763915</v>
       </c>
       <c r="G17" s="76">
-        <f>A17-$A$12</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H17" s="22">
-        <f>B17/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.091359345845681</v>
       </c>
       <c r="I17" s="20">
-        <f>C17/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.2542562147244056</v>
       </c>
       <c r="J17" s="20">
-        <f>D17/$D$12</f>
-        <v>1.1207757418060087</v>
+        <f t="shared" si="3"/>
+        <v>1.1164267518946909</v>
       </c>
       <c r="K17" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1949625842195228</v>
       </c>
       <c r="L17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1939977426931474</v>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="D18" s="81">
         <f>'Employment calcs'!F13</f>
-        <v>5274423.1947000008</v>
+        <v>5385241.0172866844</v>
       </c>
       <c r="E18" s="68">
         <f>'Exergy calcs'!AO37</f>
@@ -5455,27 +5455,27 @@
         <v>5219154.6937368875</v>
       </c>
       <c r="G18" s="76">
-        <f>A18-$A$12</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H18" s="22">
-        <f>B18/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.1196538982182709</v>
       </c>
       <c r="I18" s="20">
-        <f>C18/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.2887861579363036</v>
       </c>
       <c r="J18" s="20">
-        <f>D18/$D$12</f>
-        <v>1.0884299645035702</v>
+        <f t="shared" si="3"/>
+        <v>1.1067430954887363</v>
       </c>
       <c r="K18" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.265522909688287</v>
       </c>
       <c r="L18" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.264015804467999</v>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="D19" s="81">
         <f>'Employment calcs'!F14</f>
-        <v>5314835.1240000008</v>
+        <v>5331189.5947437491</v>
       </c>
       <c r="E19" s="68">
         <f>'Exergy calcs'!AO38</f>
@@ -5502,27 +5502,27 @@
         <v>5415400.5563141815</v>
       </c>
       <c r="G19" s="76">
-        <f>A19-$A$12</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H19" s="22">
-        <f>B19/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.1513920901474408</v>
       </c>
       <c r="I19" s="20">
-        <f>C19/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.3288676226816829</v>
       </c>
       <c r="J19" s="20">
-        <f>D19/$D$12</f>
-        <v>1.0967693701882939</v>
+        <f t="shared" si="3"/>
+        <v>1.0956347646807536</v>
       </c>
       <c r="K19" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.3130381249218592</v>
       </c>
       <c r="L19" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.311544166131015</v>
       </c>
     </row>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="D20" s="81">
         <f>'Employment calcs'!F15</f>
-        <v>5493845.7938000001</v>
+        <v>5479528.4250293337</v>
       </c>
       <c r="E20" s="68">
         <f>'Exergy calcs'!AO39</f>
@@ -5549,27 +5549,27 @@
         <v>5487653.2121359659</v>
       </c>
       <c r="G20" s="76">
-        <f>A20-$A$12</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H20" s="22">
-        <f>B20/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.1427761314162368</v>
       </c>
       <c r="I20" s="20">
-        <f>C20/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.3774051048540374</v>
       </c>
       <c r="J20" s="20">
-        <f>D20/$D$12</f>
-        <v>1.1337100118061223</v>
+        <f t="shared" si="3"/>
+        <v>1.126120489587856</v>
       </c>
       <c r="K20" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.3301716683831304</v>
       </c>
       <c r="L20" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3290428808142796</v>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="D21" s="81">
         <f>'Employment calcs'!F16</f>
-        <v>5624704.4455999993</v>
+        <v>5742268.4860593285</v>
       </c>
       <c r="E21" s="68">
         <f>'Exergy calcs'!AO40</f>
@@ -5596,27 +5596,27 @@
         <v>5775501.9147123108</v>
       </c>
       <c r="G21" s="76">
-        <f>A21-$A$12</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H21" s="22">
-        <f>B21/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.1983682727838145</v>
       </c>
       <c r="I21" s="20">
-        <f>C21/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.4293099507913594</v>
       </c>
       <c r="J21" s="20">
-        <f>D21/$D$12</f>
-        <v>1.1607140030438332</v>
+        <f t="shared" si="3"/>
+        <v>1.1801172833283424</v>
       </c>
       <c r="K21" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.400309878998776</v>
       </c>
       <c r="L21" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3987563364795679</v>
       </c>
     </row>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="D22" s="81">
         <f>'Employment calcs'!F17</f>
-        <v>5898385.4752000002</v>
+        <v>6007774.0449613715</v>
       </c>
       <c r="E22" s="68">
         <f>'Exergy calcs'!AO41</f>
@@ -5643,27 +5643,27 @@
         <v>6101936.1516594877</v>
       </c>
       <c r="G22" s="76">
-        <f>A22-$A$12</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H22" s="22">
-        <f>B22/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.2049262795887754</v>
       </c>
       <c r="I22" s="20">
-        <f>C22/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.4799043020675728</v>
       </c>
       <c r="J22" s="20">
-        <f>D22/$D$12</f>
-        <v>1.2171908200031087</v>
+        <f t="shared" si="3"/>
+        <v>1.2346824259441442</v>
       </c>
       <c r="K22" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.4797842836205422</v>
       </c>
       <c r="L22" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.4778147393883445</v>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="D23" s="81">
         <f>'Employment calcs'!F18</f>
-        <v>6219998.2655999996</v>
+        <v>6362479.3779835021</v>
       </c>
       <c r="E23" s="68">
         <f>'Exergy calcs'!AO42</f>
@@ -5690,27 +5690,27 @@
         <v>6394906.7801511111</v>
       </c>
       <c r="G23" s="76">
-        <f>A23-$A$12</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H23" s="22">
-        <f>B23/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.2064674569202063</v>
       </c>
       <c r="I23" s="20">
-        <f>C23/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.5290116903066788</v>
       </c>
       <c r="J23" s="20">
-        <f>D23/$D$12</f>
-        <v>1.283558835066958</v>
+        <f t="shared" si="3"/>
+        <v>1.3075793820868926</v>
       </c>
       <c r="K23" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.5509657059675972</v>
       </c>
       <c r="L23" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.5487686632302125</v>
       </c>
     </row>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="D24" s="81">
         <f>'Employment calcs'!F19</f>
-        <v>6823150.3405000009</v>
+        <v>6825300.2834754037</v>
       </c>
       <c r="E24" s="68">
         <f>'Exergy calcs'!AO43</f>
@@ -5737,27 +5737,27 @@
         <v>6771416.148916523</v>
       </c>
       <c r="G24" s="76">
-        <f>A24-$A$12</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H24" s="22">
-        <f>B24/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.29887407163502</v>
       </c>
       <c r="I24" s="20">
-        <f>C24/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.5999866925486952</v>
       </c>
       <c r="J24" s="20">
-        <f>D24/$D$12</f>
-        <v>1.4080252965623752</v>
+        <f t="shared" si="3"/>
+        <v>1.4026956155027717</v>
       </c>
       <c r="K24" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.642287298330382</v>
       </c>
       <c r="L24" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.6399546541763821</v>
       </c>
     </row>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="D25" s="81">
         <f>'Employment calcs'!F20</f>
-        <v>7354121.3855999997</v>
+        <v>7289035.5722121857</v>
       </c>
       <c r="E25" s="68">
         <f>'Exergy calcs'!AO44</f>
@@ -5784,27 +5784,27 @@
         <v>7267659.9643259216</v>
       </c>
       <c r="G25" s="76">
-        <f>A25-$A$12</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="H25" s="22">
-        <f>B25/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.3672849668898401</v>
       </c>
       <c r="I25" s="20">
-        <f>C25/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.6704930410708447</v>
       </c>
       <c r="J25" s="20">
-        <f>D25/$D$12</f>
-        <v>1.5175964808297548</v>
+        <f t="shared" si="3"/>
+        <v>1.4979997675911214</v>
       </c>
       <c r="K25" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.7630182123296265</v>
       </c>
       <c r="L25" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.7601388721877216</v>
       </c>
     </row>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="D26" s="81">
         <f>'Employment calcs'!F21</f>
-        <v>7616225.5487999991</v>
+        <v>7802970.9251908837</v>
       </c>
       <c r="E26" s="68">
         <f>'Exergy calcs'!AO45</f>
@@ -5831,27 +5831,27 @@
         <v>7612222.180648311</v>
       </c>
       <c r="G26" s="76">
-        <f>A26-$A$12</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="H26" s="22">
-        <f>B26/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.4432188197417042</v>
       </c>
       <c r="I26" s="20">
-        <f>C26/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.769911274014887</v>
       </c>
       <c r="J26" s="20">
-        <f>D26/$D$12</f>
-        <v>1.5716842956517962</v>
+        <f t="shared" si="3"/>
+        <v>1.6036207419562249</v>
       </c>
       <c r="K26" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.8467910217842849</v>
       </c>
       <c r="L26" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.843587651273858</v>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="D27" s="81">
         <f>'Employment calcs'!F22</f>
-        <v>7975498.6175999986</v>
+        <v>8044568.2303405562</v>
       </c>
       <c r="E27" s="68">
         <f>'Exergy calcs'!AO46</f>
@@ -5878,27 +5878,27 @@
         <v>7837677.6198742716</v>
       </c>
       <c r="G27" s="76">
-        <f>A27-$A$12</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H27" s="22">
-        <f>B27/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.4887910218417297</v>
       </c>
       <c r="I27" s="20">
-        <f>C27/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.8990427313833096</v>
       </c>
       <c r="J27" s="20">
-        <f>D27/$D$12</f>
-        <v>1.6458238857237517</v>
+        <f t="shared" si="3"/>
+        <v>1.6532724007222435</v>
       </c>
       <c r="K27" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.9015211202007152</v>
       </c>
       <c r="L27" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.8981902172270901</v>
       </c>
     </row>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="D28" s="81">
         <f>'Employment calcs'!F23</f>
-        <v>8324563.0463999994</v>
+        <v>8414995.5102343746</v>
       </c>
       <c r="E28" s="68">
         <f>'Exergy calcs'!AO47</f>
@@ -5925,27 +5925,27 @@
         <v>8179516.6337993983</v>
       </c>
       <c r="G28" s="76">
-        <f>A28-$A$12</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H28" s="22">
-        <f>B28/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.5188234002853693</v>
       </c>
       <c r="I28" s="20">
-        <f>C28/$C$12</f>
+        <f t="shared" si="2"/>
         <v>2.065484232116666</v>
       </c>
       <c r="J28" s="20">
-        <f>D28/$D$12</f>
-        <v>1.717856820856833</v>
+        <f t="shared" si="3"/>
+        <v>1.7294004390193514</v>
       </c>
       <c r="K28" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.9837804334929643</v>
       </c>
       <c r="L28" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9809794698054117</v>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="D29" s="81">
         <f>'Employment calcs'!F24</f>
-        <v>8666390.8368000016</v>
+        <v>8708680.6996048559</v>
       </c>
       <c r="E29" s="68">
         <f>'Exergy calcs'!AO48</f>
@@ -5972,27 +5972,27 @@
         <v>8015642.6207443634</v>
       </c>
       <c r="G29" s="76">
-        <f>A29-$A$12</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="H29" s="22">
-        <f>B29/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.5830497932901622</v>
       </c>
       <c r="I29" s="20">
-        <f>C29/$C$12</f>
+        <f t="shared" si="2"/>
         <v>2.2829800590735121</v>
       </c>
       <c r="J29" s="20">
-        <f>D29/$D$12</f>
-        <v>1.7883964032978603</v>
+        <f t="shared" si="3"/>
+        <v>1.7897568937332109</v>
       </c>
       <c r="K29" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.9462941711455051</v>
       </c>
       <c r="L29" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9412911764709122</v>
       </c>
     </row>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="D30" s="81">
         <f>'Employment calcs'!F25</f>
-        <v>8694192.7514999993</v>
+        <v>8885320.9865131099</v>
       </c>
       <c r="E30" s="68">
         <f>'Exergy calcs'!AO49</f>
@@ -6019,27 +6019,27 @@
         <v>8461200.696782466</v>
       </c>
       <c r="G30" s="76">
-        <f>A30-$A$12</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H30" s="22">
-        <f>B30/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.585551348187173</v>
       </c>
       <c r="I30" s="20">
-        <f>C30/$C$12</f>
+        <f t="shared" si="2"/>
         <v>2.4182647662083312</v>
       </c>
       <c r="J30" s="20">
-        <f>D30/$D$12</f>
-        <v>1.7941336063839641</v>
+        <f t="shared" si="3"/>
+        <v>1.8260589677338577</v>
       </c>
       <c r="K30" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.0525375507856669</v>
       </c>
       <c r="L30" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.0491999247201949</v>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="D31" s="81">
         <f>'Employment calcs'!F26</f>
-        <v>9030420.2939999998</v>
+        <v>9196367.5238889512</v>
       </c>
       <c r="E31" s="68">
         <f>'Exergy calcs'!AO50</f>
@@ -6066,27 +6066,27 @@
         <v>9257115.3851322886</v>
       </c>
       <c r="G31" s="76">
-        <f>A31-$A$12</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="H31" s="22">
-        <f>B31/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.659024805180551</v>
       </c>
       <c r="I31" s="20">
-        <f>C31/$C$12</f>
+        <f t="shared" si="2"/>
         <v>2.5547037500976364</v>
       </c>
       <c r="J31" s="20">
-        <f>D31/$D$12</f>
-        <v>1.8635175216746698</v>
+        <f t="shared" si="3"/>
+        <v>1.8899834246915592</v>
       </c>
       <c r="K31" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.2461628284231305</v>
       </c>
       <c r="L31" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.2419607843072238</v>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="D32" s="81">
         <f>'Employment calcs'!F27</f>
-        <v>9239155.9890000001</v>
+        <v>9615054.8261487931</v>
       </c>
       <c r="E32" s="68">
         <f>'Exergy calcs'!AO51</f>
@@ -6113,27 +6113,27 @@
         <v>11215351.745005729</v>
       </c>
       <c r="G32" s="76">
-        <f>A32-$A$12</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H32" s="22">
-        <f>B32/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.7712426371053305</v>
       </c>
       <c r="I32" s="20">
-        <f>C32/$C$12</f>
+        <f t="shared" si="2"/>
         <v>2.6944319887985975</v>
       </c>
       <c r="J32" s="20">
-        <f>D32/$D$12</f>
-        <v>1.9065922194592113</v>
+        <f t="shared" si="3"/>
+        <v>1.976029579256867</v>
       </c>
       <c r="K32" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.7192170244508747</v>
       </c>
       <c r="L32" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.716221819477203</v>
       </c>
     </row>
@@ -6159,13 +6159,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="K10:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="E3" s="78">
         <f>'Saudi Arabia Workbook'!J13</f>
-        <v>1.049243271788266</v>
+        <v>1.0376879405982591</v>
       </c>
       <c r="F3" s="78">
         <f>'Saudi Arabia Workbook'!K13</f>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="E4" s="78">
         <f>'Saudi Arabia Workbook'!J14</f>
-        <v>1.0791928743751737</v>
+        <v>1.0707955885023615</v>
       </c>
       <c r="F4" s="78">
         <f>'Saudi Arabia Workbook'!K14</f>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="E5" s="78">
         <f>'Saudi Arabia Workbook'!J15</f>
-        <v>1.1059441576535314</v>
+        <v>1.1101549058701556</v>
       </c>
       <c r="F5" s="78">
         <f>'Saudi Arabia Workbook'!K15</f>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="E6" s="78">
         <f>'Saudi Arabia Workbook'!J16</f>
-        <v>1.1257132484303041</v>
+        <v>1.1285572107002031</v>
       </c>
       <c r="F6" s="78">
         <f>'Saudi Arabia Workbook'!K16</f>
@@ -6440,7 +6440,7 @@
       </c>
       <c r="E7" s="78">
         <f>'Saudi Arabia Workbook'!J17</f>
-        <v>1.1207757418060087</v>
+        <v>1.1164267518946909</v>
       </c>
       <c r="F7" s="78">
         <f>'Saudi Arabia Workbook'!K17</f>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="E8" s="78">
         <f>'Saudi Arabia Workbook'!J18</f>
-        <v>1.0884299645035702</v>
+        <v>1.1067430954887363</v>
       </c>
       <c r="F8" s="78">
         <f>'Saudi Arabia Workbook'!K18</f>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="E9" s="78">
         <f>'Saudi Arabia Workbook'!J19</f>
-        <v>1.0967693701882939</v>
+        <v>1.0956347646807536</v>
       </c>
       <c r="F9" s="78">
         <f>'Saudi Arabia Workbook'!K19</f>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="E10" s="78">
         <f>'Saudi Arabia Workbook'!J20</f>
-        <v>1.1337100118061223</v>
+        <v>1.126120489587856</v>
       </c>
       <c r="F10" s="78">
         <f>'Saudi Arabia Workbook'!K20</f>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="E11" s="78">
         <f>'Saudi Arabia Workbook'!J21</f>
-        <v>1.1607140030438332</v>
+        <v>1.1801172833283424</v>
       </c>
       <c r="F11" s="78">
         <f>'Saudi Arabia Workbook'!K21</f>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="E12" s="78">
         <f>'Saudi Arabia Workbook'!J22</f>
-        <v>1.2171908200031087</v>
+        <v>1.2346824259441442</v>
       </c>
       <c r="F12" s="78">
         <f>'Saudi Arabia Workbook'!K22</f>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="E13" s="78">
         <f>'Saudi Arabia Workbook'!J23</f>
-        <v>1.283558835066958</v>
+        <v>1.3075793820868926</v>
       </c>
       <c r="F13" s="78">
         <f>'Saudi Arabia Workbook'!K23</f>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="E14" s="78">
         <f>'Saudi Arabia Workbook'!J24</f>
-        <v>1.4080252965623752</v>
+        <v>1.4026956155027717</v>
       </c>
       <c r="F14" s="78">
         <f>'Saudi Arabia Workbook'!K24</f>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="E15" s="78">
         <f>'Saudi Arabia Workbook'!J25</f>
-        <v>1.5175964808297548</v>
+        <v>1.4979997675911214</v>
       </c>
       <c r="F15" s="78">
         <f>'Saudi Arabia Workbook'!K25</f>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="E16" s="78">
         <f>'Saudi Arabia Workbook'!J26</f>
-        <v>1.5716842956517962</v>
+        <v>1.6036207419562249</v>
       </c>
       <c r="F16" s="78">
         <f>'Saudi Arabia Workbook'!K26</f>
@@ -6830,7 +6830,7 @@
       </c>
       <c r="E17" s="78">
         <f>'Saudi Arabia Workbook'!J27</f>
-        <v>1.6458238857237517</v>
+        <v>1.6532724007222435</v>
       </c>
       <c r="F17" s="78">
         <f>'Saudi Arabia Workbook'!K27</f>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="E18" s="78">
         <f>'Saudi Arabia Workbook'!J28</f>
-        <v>1.717856820856833</v>
+        <v>1.7294004390193514</v>
       </c>
       <c r="F18" s="78">
         <f>'Saudi Arabia Workbook'!K28</f>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="E19" s="78">
         <f>'Saudi Arabia Workbook'!J29</f>
-        <v>1.7883964032978603</v>
+        <v>1.7897568937332109</v>
       </c>
       <c r="F19" s="78">
         <f>'Saudi Arabia Workbook'!K29</f>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="E20" s="78">
         <f>'Saudi Arabia Workbook'!J30</f>
-        <v>1.7941336063839641</v>
+        <v>1.8260589677338577</v>
       </c>
       <c r="F20" s="78">
         <f>'Saudi Arabia Workbook'!K30</f>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="E21" s="78">
         <f>'Saudi Arabia Workbook'!J31</f>
-        <v>1.8635175216746698</v>
+        <v>1.8899834246915592</v>
       </c>
       <c r="F21" s="78">
         <f>'Saudi Arabia Workbook'!K31</f>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="E22" s="78">
         <f>'Saudi Arabia Workbook'!J32</f>
-        <v>1.9065922194592113</v>
+        <v>1.976029579256867</v>
       </c>
       <c r="F22" s="78">
         <f>'Saudi Arabia Workbook'!K32</f>
@@ -7059,8 +7059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7144,19 +7144,19 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="7"/>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="102" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7164,32 +7164,32 @@
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="7">
         <v>1991</v>
       </c>
       <c r="B7" s="7">
-        <v>51</v>
+        <v>50.400001525878899</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>42.326667785644503</v>
       </c>
       <c r="D7" s="8">
-        <v>16669764</v>
+        <v>16739895</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" ref="E7:E27" si="0">D7*(1-C7/100)</f>
-        <v>9501765.4800000004</v>
+        <v>9654455.2556842864</v>
       </c>
       <c r="F7" s="6">
         <f>E7*B7/100</f>
-        <v>4845900.3947999999</v>
+        <v>4865845.5961801764</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -7197,21 +7197,21 @@
         <v>1992</v>
       </c>
       <c r="B8" s="7">
-        <v>51</v>
+        <v>50.5</v>
       </c>
       <c r="C8" s="7">
-        <v>42</v>
+        <v>42.083538055419901</v>
       </c>
       <c r="D8" s="8">
-        <v>17189075</v>
+        <v>17263613</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
-        <v>9969663.5000000019</v>
+        <v>9998473.8534045834</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" ref="F8:F27" si="1">E8*B8/100</f>
-        <v>5084528.3850000016</v>
+        <v>5049229.2959693149</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -7219,21 +7219,21 @@
         <v>1993</v>
       </c>
       <c r="B9" s="7">
-        <v>51</v>
+        <v>50.400001525878899</v>
       </c>
       <c r="C9" s="7">
-        <v>42</v>
+        <v>41.784591674804702</v>
       </c>
       <c r="D9" s="8">
-        <v>17679720</v>
+        <v>17758096</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>10254237.600000001</v>
+        <v>10337948.097180173</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="1"/>
-        <v>5229661.1760000009</v>
+        <v>5210325.9987233756</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -7241,21 +7241,21 @@
         <v>1994</v>
       </c>
       <c r="B10" s="7">
-        <v>51</v>
+        <v>50.700000762939503</v>
       </c>
       <c r="C10" s="7">
-        <v>42</v>
+        <v>41.449058532714801</v>
       </c>
       <c r="D10" s="8">
-        <v>18117969</v>
+        <v>18197011</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>10508422.020000001</v>
+        <v>10654521.259405449</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="1"/>
-        <v>5359295.230200001</v>
+        <v>5401842.3598061148</v>
       </c>
     </row>
     <row r="11" spans="1:53">
@@ -7263,21 +7263,21 @@
         <v>1995</v>
       </c>
       <c r="B11" s="7">
-        <v>50</v>
+        <v>50.200000762939503</v>
       </c>
       <c r="C11" s="7">
-        <v>41</v>
+        <v>41.0846557617188</v>
       </c>
       <c r="D11" s="8">
-        <v>18491845</v>
+        <v>18567343</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
-        <v>10910188.550000001</v>
+        <v>10939014.044352407</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="1"/>
-        <v>5455094.2750000004</v>
+        <v>5491385.1337229665</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -7285,21 +7285,21 @@
         <v>1996</v>
       </c>
       <c r="B12" s="7">
-        <v>49</v>
+        <v>48.599998474121101</v>
       </c>
       <c r="C12" s="7">
-        <v>41</v>
+        <v>40.696685791015597</v>
       </c>
       <c r="D12" s="8">
-        <v>18786467</v>
+        <v>18848350</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="0"/>
-        <v>11084015.530000001</v>
+        <v>11177696.223709112</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="1"/>
-        <v>5431167.6096999999</v>
+        <v>5432360.1941645201</v>
       </c>
     </row>
     <row r="13" spans="1:53">
@@ -7307,21 +7307,21 @@
         <v>1997</v>
       </c>
       <c r="B13" s="7">
-        <v>47</v>
+        <v>47.299999237060497</v>
       </c>
       <c r="C13" s="7">
-        <v>41</v>
+        <v>40.268730163574197</v>
       </c>
       <c r="D13" s="8">
-        <v>19020639</v>
+        <v>19060850</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="0"/>
-        <v>11222177.010000002</v>
+        <v>11385287.746616367</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="1"/>
-        <v>5274423.1947000008</v>
+        <v>5385241.0172866844</v>
       </c>
     </row>
     <row r="14" spans="1:53">
@@ -7329,21 +7329,21 @@
         <v>1998</v>
       </c>
       <c r="B14" s="7">
-        <v>46</v>
+        <v>45.900001525878899</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
+        <v>39.766567230224602</v>
       </c>
       <c r="D14" s="8">
-        <v>19256649</v>
+        <v>19282965</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="0"/>
-        <v>11553989.4</v>
+        <v>11614791.75929432</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="1"/>
-        <v>5314835.1240000008</v>
+        <v>5331189.5947437491</v>
       </c>
     </row>
     <row r="15" spans="1:53">
@@ -7351,21 +7351,21 @@
         <v>1999</v>
       </c>
       <c r="B15" s="7">
-        <v>46</v>
+        <v>45.900001525878899</v>
       </c>
       <c r="C15" s="7">
-        <v>39</v>
+        <v>39.156223297119098</v>
       </c>
       <c r="D15" s="8">
-        <v>19578923</v>
+        <v>19620692</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="0"/>
-        <v>11943143.029999999</v>
+        <v>11937970.028040018</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="1"/>
-        <v>5493845.7938000001</v>
+        <v>5479528.4250293337</v>
       </c>
     </row>
     <row r="16" spans="1:53">
@@ -7373,21 +7373,21 @@
         <v>2000</v>
       </c>
       <c r="B16" s="7">
-        <v>46</v>
+        <v>46.299999237060497</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>38.433536529541001</v>
       </c>
       <c r="D16" s="8">
-        <v>20045276</v>
+        <v>20144584</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="0"/>
-        <v>12227618.359999999</v>
+        <v>12402307.949635928</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="1"/>
-        <v>5624704.4455999993</v>
+        <v>5742268.4860593285</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7395,21 +7395,21 @@
         <v>2001</v>
       </c>
       <c r="B17" s="7">
-        <v>46</v>
+        <v>46.099998474121101</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>37.620613098144503</v>
       </c>
       <c r="D17" s="8">
-        <v>20681576</v>
+        <v>20891594</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="0"/>
-        <v>12822577.119999999</v>
+        <v>13032048.251224829</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="1"/>
-        <v>5898385.4752000002</v>
+        <v>6007774.0449613715</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7417,21 +7417,21 @@
         <v>2002</v>
       </c>
       <c r="B18" s="7">
-        <v>46</v>
+        <v>46.099998474121101</v>
       </c>
       <c r="C18" s="7">
-        <v>37</v>
+        <v>36.763633728027301</v>
       </c>
       <c r="D18" s="8">
-        <v>21463072</v>
+        <v>21825217</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="0"/>
-        <v>13521735.359999999</v>
+        <v>13801474.161772851</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="1"/>
-        <v>6219998.2655999996</v>
+        <v>6362479.3779835021</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7439,21 +7439,21 @@
         <v>2003</v>
       </c>
       <c r="B19" s="7">
-        <v>47</v>
+        <v>46.599998474121101</v>
       </c>
       <c r="C19" s="7">
-        <v>35</v>
+        <v>35.907779693603501</v>
       </c>
       <c r="D19" s="8">
-        <v>22334371</v>
+        <v>22852333</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="0"/>
-        <v>14517341.15</v>
+        <v>14646567.611511348</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="1"/>
-        <v>6823150.3405000009</v>
+        <v>6825300.2834754037</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7461,21 +7461,21 @@
         <v>2004</v>
       </c>
       <c r="B20" s="7">
-        <v>48</v>
+        <v>47.099998474121101</v>
       </c>
       <c r="C20" s="7">
-        <v>34</v>
+        <v>35.083225250244098</v>
       </c>
       <c r="D20" s="8">
-        <v>23213767</v>
+        <v>23839231</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="0"/>
-        <v>15321086.219999999</v>
+        <v>15475659.890343981</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="1"/>
-        <v>7354121.3855999997</v>
+        <v>7289035.5722121857</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7483,21 +7483,21 @@
         <v>2005</v>
       </c>
       <c r="B21" s="7">
-        <v>48</v>
+        <v>48.099998474121101</v>
       </c>
       <c r="C21" s="7">
-        <v>34</v>
+        <v>34.295871734619098</v>
       </c>
       <c r="D21" s="8">
-        <v>24041116</v>
+        <v>24690067</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="0"/>
-        <v>15867136.559999999</v>
+        <v>16222393.290488482</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="1"/>
-        <v>7616225.5487999991</v>
+        <v>7802970.9251908837</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7505,21 +7505,21 @@
         <v>2006</v>
       </c>
       <c r="B22" s="7">
-        <v>48</v>
+        <v>47.700000762939503</v>
       </c>
       <c r="C22" s="7">
-        <v>33</v>
+        <v>33.529224395752003</v>
       </c>
       <c r="D22" s="8">
-        <v>24799436</v>
+        <v>25371936</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="0"/>
-        <v>16615622.119999997</v>
+        <v>16864922.645013414</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="1"/>
-        <v>7975498.6175999986</v>
+        <v>8044568.2303405562</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7527,21 +7527,21 @@
         <v>2007</v>
       </c>
       <c r="B23" s="7">
-        <v>48</v>
+        <v>48.299999237060497</v>
       </c>
       <c r="C23" s="7">
-        <v>32</v>
+        <v>32.772789001464801</v>
       </c>
       <c r="D23" s="8">
-        <v>25504176</v>
+        <v>25915624</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="0"/>
-        <v>17342839.68</v>
+        <v>17422351.228067026</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="1"/>
-        <v>8324563.0463999994</v>
+        <v>8414995.5102343746</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7549,21 +7549,21 @@
         <v>2008</v>
       </c>
       <c r="B24" s="7">
-        <v>48</v>
+        <v>48.599998474121101</v>
       </c>
       <c r="C24" s="7">
-        <v>31</v>
+        <v>32.038028717041001</v>
       </c>
       <c r="D24" s="8">
-        <v>26166639</v>
+        <v>26366358</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="0"/>
-        <v>18054980.91</v>
+        <v>17919096.652322162</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="1"/>
-        <v>8666390.8368000016</v>
+        <v>8708680.6996048559</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7571,21 +7571,21 @@
         <v>2009</v>
       </c>
       <c r="B25" s="7">
-        <v>47</v>
+        <v>48.299999237060497</v>
       </c>
       <c r="C25" s="7">
-        <v>31</v>
+        <v>31.348512649536101</v>
       </c>
       <c r="D25" s="8">
-        <v>26809105</v>
+        <v>26796375</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="0"/>
-        <v>18498282.449999999</v>
+        <v>18396109.99350787</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="1"/>
-        <v>8694192.7514999993</v>
+        <v>8885320.9865131099</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7593,21 +7593,21 @@
         <v>2010</v>
       </c>
       <c r="B26" s="7">
-        <v>47</v>
+        <v>48.700000762939503</v>
       </c>
       <c r="C26" s="7">
-        <v>30</v>
+        <v>30.7232990264893</v>
       </c>
       <c r="D26" s="8">
-        <v>27448086</v>
+        <v>27258387</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="0"/>
-        <v>19213660.199999999</v>
+        <v>18883711.252192315</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="1"/>
-        <v>9030420.2939999998</v>
+        <v>9196367.5238889512</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7615,22 +7615,21 @@
         <v>2011</v>
       </c>
       <c r="B27">
-        <f>B26</f>
-        <v>47</v>
+        <v>49.599998474121101</v>
       </c>
       <c r="C27" s="7">
-        <v>30</v>
+        <v>30.1729640960693</v>
       </c>
       <c r="D27" s="8">
-        <v>28082541</v>
+        <v>27761728</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="0"/>
-        <v>19657778.699999999</v>
+        <v>19385191.778111581</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="1"/>
-        <v>9239155.9890000001</v>
+        <v>9615054.8261487931</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7657,7 +7656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD22" workbookViewId="0">
+    <sheetView topLeftCell="AD22" workbookViewId="0">
       <selection activeCell="AI59" sqref="AI59"/>
     </sheetView>
   </sheetViews>
@@ -8004,172 +8003,172 @@
       </c>
     </row>
     <row r="29" spans="1:41" ht="15" customHeight="1">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="109" t="s">
+      <c r="C29" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="103" t="s">
+      <c r="D29" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="103" t="s">
+      <c r="E29" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="F29" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="103" t="s">
+      <c r="G29" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="103" t="s">
+      <c r="H29" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="103" t="s">
+      <c r="I29" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="103" t="s">
+      <c r="J29" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="K29" s="103" t="s">
+      <c r="K29" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="L29" s="103" t="s">
+      <c r="L29" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="M29" s="103" t="s">
+      <c r="M29" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="N29" s="107" t="s">
+      <c r="N29" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="109" t="s">
+      <c r="O29" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="103" t="s">
+      <c r="P29" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="Q29" s="103" t="s">
+      <c r="Q29" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="R29" s="103" t="s">
+      <c r="R29" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="S29" s="103" t="s">
+      <c r="S29" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="T29" s="107" t="s">
+      <c r="T29" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="U29" s="109" t="s">
+      <c r="U29" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="V29" s="103" t="s">
+      <c r="V29" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="W29" s="103" t="s">
+      <c r="W29" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="X29" s="103" t="s">
+      <c r="X29" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="Y29" s="103" t="s">
+      <c r="Y29" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="Z29" s="103" t="s">
+      <c r="Z29" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="AA29" s="103" t="s">
+      <c r="AA29" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="AB29" s="103" t="s">
+      <c r="AB29" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="AC29" s="103" t="s">
+      <c r="AC29" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="AD29" s="105" t="s">
+      <c r="AD29" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="AE29" s="107" t="s">
+      <c r="AE29" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="AF29" s="109" t="s">
+      <c r="AF29" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="AG29" s="103" t="s">
+      <c r="AG29" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="AH29" s="103" t="s">
+      <c r="AH29" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="AI29" s="103" t="s">
+      <c r="AI29" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="AJ29" s="103" t="s">
+      <c r="AJ29" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="AK29" s="103" t="s">
+      <c r="AK29" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="AL29" s="103" t="s">
+      <c r="AL29" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="AM29" s="103" t="s">
+      <c r="AM29" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="AN29" s="103" t="s">
+      <c r="AN29" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="AO29" s="105" t="s">
+      <c r="AO29" s="106" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" s="108"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="108"/>
-      <c r="U30" s="110"/>
-      <c r="V30" s="104"/>
-      <c r="W30" s="104"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="104"/>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="104"/>
-      <c r="AB30" s="104"/>
-      <c r="AC30" s="104"/>
-      <c r="AD30" s="106"/>
-      <c r="AE30" s="108"/>
-      <c r="AF30" s="110"/>
-      <c r="AG30" s="104"/>
-      <c r="AH30" s="104"/>
-      <c r="AI30" s="104"/>
-      <c r="AJ30" s="104"/>
-      <c r="AK30" s="104"/>
-      <c r="AL30" s="104"/>
-      <c r="AM30" s="104"/>
-      <c r="AN30" s="104"/>
-      <c r="AO30" s="106"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="105"/>
+      <c r="W30" s="105"/>
+      <c r="X30" s="105"/>
+      <c r="Y30" s="105"/>
+      <c r="Z30" s="105"/>
+      <c r="AA30" s="105"/>
+      <c r="AB30" s="105"/>
+      <c r="AC30" s="105"/>
+      <c r="AD30" s="107"/>
+      <c r="AE30" s="109"/>
+      <c r="AF30" s="111"/>
+      <c r="AG30" s="105"/>
+      <c r="AH30" s="105"/>
+      <c r="AI30" s="105"/>
+      <c r="AJ30" s="105"/>
+      <c r="AK30" s="105"/>
+      <c r="AL30" s="105"/>
+      <c r="AM30" s="105"/>
+      <c r="AN30" s="105"/>
+      <c r="AO30" s="107"/>
     </row>
     <row r="31" spans="1:41">
       <c r="A31" s="42">
@@ -11167,7 +11166,7 @@
         <f t="shared" si="7"/>
         <v>6339.1922950612434</v>
       </c>
-      <c r="AD51" s="111">
+      <c r="AD51" s="100">
         <f t="shared" si="18"/>
         <v>11215351.745005729</v>
       </c>
@@ -11211,7 +11210,7 @@
         <f t="shared" si="15"/>
         <v>44022.168715703076</v>
       </c>
-      <c r="AO51" s="111">
+      <c r="AO51" s="100">
         <f t="shared" si="21"/>
         <v>10568287.237374637</v>
       </c>
@@ -11703,6 +11702,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AK29:AK30"/>
+    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AM29:AM30"/>
+    <mergeCell ref="AN29:AN30"/>
+    <mergeCell ref="AO29:AO30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="AF29:AF30"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
     <mergeCell ref="Y29:Y30"/>
     <mergeCell ref="AB29:AB30"/>
     <mergeCell ref="AC29:AC30"/>
@@ -11719,31 +11743,6 @@
     <mergeCell ref="W29:W30"/>
     <mergeCell ref="Q29:Q30"/>
     <mergeCell ref="R29:R30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="AM29:AM30"/>
-    <mergeCell ref="AN29:AN30"/>
-    <mergeCell ref="AO29:AO30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="AF29:AF30"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AK29:AK30"/>
-    <mergeCell ref="AL29:AL30"/>
-    <mergeCell ref="AJ29:AJ30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
